--- a/doc/core/DRV_BUS_and_more.xlsx
+++ b/doc/core/DRV_BUS_and_more.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="12900" windowHeight="8160"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="12900" windowHeight="8160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DRV_bus" sheetId="1" r:id="rId1"/>
@@ -6220,24 +6220,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6247,8 +6231,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6280,7 +6262,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6295,15 +6298,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6315,36 +6314,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6372,23 +6359,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -6692,7 +6692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+    <sheetView topLeftCell="F49" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -10857,8 +10857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11011,12 +11011,12 @@
     </row>
     <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19"/>
-      <c r="E8" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="E8" s="106" t="s">
+        <v>672</v>
+      </c>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
       <c r="M8" t="s">
         <v>920</v>
       </c>
@@ -11030,12 +11030,12 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
-      <c r="E9" s="106" t="s">
-        <v>672</v>
-      </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
+      <c r="E9" s="109" t="s">
+        <v>671</v>
+      </c>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
       <c r="W9" s="29">
         <v>10</v>
       </c>
@@ -11048,12 +11048,12 @@
       <c r="B10" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="109" t="s">
-        <v>671</v>
-      </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
+      <c r="E10" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
       <c r="N10" s="86" t="s">
         <v>101</v>
       </c>
@@ -11199,14 +11199,14 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
     <mergeCell ref="J5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11218,8 +11218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:J24"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11229,11 +11229,11 @@
   <sheetData>
     <row r="6" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="J7" s="112" t="s">
         <v>83</v>
       </c>
@@ -11314,163 +11314,154 @@
       </c>
     </row>
     <row r="10" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
     </row>
     <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="J11" s="135" t="s">
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="J11" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="137"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="131"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="138" t="s">
+      <c r="K12" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="138"/>
+      <c r="L12" s="132"/>
       <c r="M12" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="138" t="s">
+      <c r="K13" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="138"/>
+      <c r="L13" s="132"/>
       <c r="M13" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="H20" s="124" t="s">
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="H20" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
       <c r="G21" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="121" t="s">
+      <c r="H21" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
       <c r="G22" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="123"/>
+      <c r="H22" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
       <c r="G23" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="123"/>
+      <c r="H23" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="118"/>
+      <c r="J23" s="119"/>
     </row>
     <row r="24" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
       <c r="G24" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
+      <c r="H24" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="118"/>
+      <c r="J24" s="119"/>
     </row>
     <row r="25" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
       <c r="G25" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="122"/>
-      <c r="J25" s="123"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="119"/>
     </row>
     <row r="26" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="H26" s="121" t="s">
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="H26" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="122"/>
-      <c r="J26" s="123"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="119"/>
     </row>
     <row r="27" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="118"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="121" t="s">
+      <c r="H27" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="122"/>
-      <c r="J27" s="123"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
     <mergeCell ref="C26:E27"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
@@ -11481,9 +11472,18 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11652,12 +11652,12 @@
       <c r="B2" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="141" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="46" t="s">
         <v>631</v>
       </c>
@@ -11690,12 +11690,12 @@
       <c r="B4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="144" t="s">
         <v>657</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="43" t="s">
         <v>657</v>
       </c>
@@ -12124,12 +12124,12 @@
       <c r="B32" t="s">
         <v>641</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="140" t="s">
         <v>588</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
       <c r="G32" t="s">
         <v>639</v>
       </c>
@@ -12138,12 +12138,12 @@
       <c r="B33" t="s">
         <v>659</v>
       </c>
-      <c r="C33" s="144" t="s">
+      <c r="C33" s="140" t="s">
         <v>589</v>
       </c>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
       <c r="G33" t="s">
         <v>640</v>
       </c>
@@ -12152,45 +12152,45 @@
       <c r="B34" t="s">
         <v>760</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>761</v>
       </c>
-      <c r="C35" s="144" t="s">
+      <c r="C35" s="140" t="s">
         <v>762</v>
       </c>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>764</v>
       </c>
-      <c r="C36" s="144" t="s">
+      <c r="C36" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>765</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="140" t="s">
         <v>763</v>
       </c>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -12283,6 +12283,35 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C28:F28"/>
@@ -12298,35 +12327,6 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12384,16 +12384,16 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
-      <c r="O4" s="149" t="s">
+      <c r="O4" s="148" t="s">
         <v>388</v>
       </c>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="151"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="150"/>
       <c r="W4" s="147" t="s">
         <v>383</v>
       </c>
@@ -12724,14 +12724,14 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="146" t="s">
         <v>558</v>
       </c>
       <c r="H12" s="139"/>
       <c r="I12" s="139"/>
       <c r="J12" s="139"/>
       <c r="K12" s="139"/>
-      <c r="L12" s="148" t="s">
+      <c r="L12" s="146" t="s">
         <v>557</v>
       </c>
       <c r="M12" s="139"/>
@@ -12942,7 +12942,7 @@
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
       <c r="N19" s="55"/>
-      <c r="O19" s="148" t="s">
+      <c r="O19" s="146" t="s">
         <v>448</v>
       </c>
       <c r="P19" s="139"/>
@@ -13004,7 +13004,7 @@
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
-      <c r="O21" s="148" t="s">
+      <c r="O21" s="146" t="s">
         <v>449</v>
       </c>
       <c r="P21" s="139"/>
@@ -13033,16 +13033,16 @@
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
       <c r="N22" s="55"/>
-      <c r="O22" s="144" t="s">
+      <c r="O22" s="140" t="s">
         <v>450</v>
       </c>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="140"/>
       <c r="W22" t="s">
         <v>617</v>
       </c>
@@ -13061,7 +13061,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
-      <c r="N23" s="144" t="s">
+      <c r="N23" s="140" t="s">
         <v>457</v>
       </c>
       <c r="O23" s="145"/>
@@ -13090,7 +13090,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="55"/>
-      <c r="N24" s="144" t="s">
+      <c r="N24" s="140" t="s">
         <v>458</v>
       </c>
       <c r="O24" s="145"/>
@@ -13119,7 +13119,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
-      <c r="N25" s="144" t="s">
+      <c r="N25" s="140" t="s">
         <v>459</v>
       </c>
       <c r="O25" s="145"/>
@@ -13148,7 +13148,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
-      <c r="N26" s="144" t="s">
+      <c r="N26" s="140" t="s">
         <v>460</v>
       </c>
       <c r="O26" s="145"/>
@@ -13185,17 +13185,17 @@
       <c r="M27" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="N27" s="144" t="s">
+      <c r="N27" s="140" t="s">
         <v>464</v>
       </c>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="140"/>
+      <c r="V27" s="140"/>
       <c r="W27">
         <v>0</v>
       </c>
@@ -13646,17 +13646,17 @@
       <c r="C43" t="s">
         <v>531</v>
       </c>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
       <c r="O43" s="139" t="s">
         <v>532</v>
       </c>
@@ -13679,17 +13679,17 @@
       <c r="C44" t="s">
         <v>544</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
       <c r="O44" s="139" t="s">
         <v>132</v>
       </c>
@@ -13915,6 +13915,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="D45:V45"/>
+    <mergeCell ref="D46:V46"/>
+    <mergeCell ref="D43:N43"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="G42:V42"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="O21:V21"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="O22:V22"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="O18:V18"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="O39:V39"/>
+    <mergeCell ref="O40:V40"/>
+    <mergeCell ref="D41:V41"/>
+    <mergeCell ref="E30:V30"/>
+    <mergeCell ref="E31:V31"/>
+    <mergeCell ref="E32:V32"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="E29:V29"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="O36:V36"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="D51:V51"/>
     <mergeCell ref="G20:S20"/>
     <mergeCell ref="O37:V37"/>
@@ -13931,47 +13972,6 @@
     <mergeCell ref="G47:N47"/>
     <mergeCell ref="O48:V48"/>
     <mergeCell ref="O34:R34"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="O39:V39"/>
-    <mergeCell ref="O40:V40"/>
-    <mergeCell ref="D41:V41"/>
-    <mergeCell ref="E30:V30"/>
-    <mergeCell ref="E31:V31"/>
-    <mergeCell ref="E32:V32"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="E29:V29"/>
-    <mergeCell ref="O35:T35"/>
-    <mergeCell ref="O36:V36"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="O21:V21"/>
-    <mergeCell ref="O19:V19"/>
-    <mergeCell ref="O22:V22"/>
-    <mergeCell ref="O4:V4"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="O18:V18"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="D45:V45"/>
-    <mergeCell ref="D46:V46"/>
-    <mergeCell ref="D43:N43"/>
-    <mergeCell ref="D44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="G42:V42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13994,33 +13994,33 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="170" t="s">
         <v>812</v>
       </c>
-      <c r="D3" s="159"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
-      <c r="J3" s="153" t="s">
+      <c r="J3" s="172" t="s">
         <v>388</v>
       </c>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="153"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="160"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="173"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="64"/>
@@ -14090,10 +14090,10 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="168" t="s">
         <v>810</v>
       </c>
-      <c r="D5" s="157"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
@@ -14153,10 +14153,10 @@
       </c>
     </row>
     <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="168" t="s">
         <v>811</v>
       </c>
-      <c r="D6" s="157"/>
+      <c r="D6" s="169"/>
       <c r="E6" s="66" t="s">
         <v>835</v>
       </c>
@@ -14222,35 +14222,35 @@
       </c>
     </row>
     <row r="7" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="136" t="s">
         <v>900</v>
       </c>
-      <c r="D7" s="119"/>
+      <c r="D7" s="137"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
-      <c r="J7" s="161" t="s">
+      <c r="J7" s="174" t="s">
         <v>873</v>
       </c>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="177" t="s">
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="156" t="s">
         <v>836</v>
       </c>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
-      <c r="Y7" s="179"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="157"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="158"/>
     </row>
     <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="139" t="s">
@@ -14269,27 +14269,27 @@
         <v>791</v>
       </c>
       <c r="F12" s="139"/>
-      <c r="N12" s="170" t="s">
+      <c r="N12" s="165" t="s">
         <v>836</v>
       </c>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="172"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="167"/>
       <c r="R12" s="71" t="s">
         <v>837</v>
       </c>
-      <c r="S12" s="154" t="s">
+      <c r="S12" s="177" t="s">
         <v>866</v>
       </c>
-      <c r="T12" s="155"/>
+      <c r="T12" s="178"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N13" s="167" t="s">
+      <c r="N13" s="162" t="s">
         <v>813</v>
       </c>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="169"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="164"/>
       <c r="R13" t="s">
         <v>838</v>
       </c>
@@ -14299,12 +14299,12 @@
       <c r="T13" s="145"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N14" s="164" t="s">
+      <c r="N14" s="159" t="s">
         <v>435</v>
       </c>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="166"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="161"/>
       <c r="R14" t="s">
         <v>839</v>
       </c>
@@ -14314,12 +14314,12 @@
       <c r="T14" s="145"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="164" t="s">
+      <c r="N15" s="159" t="s">
         <v>854</v>
       </c>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="166"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="161"/>
       <c r="R15" t="s">
         <v>840</v>
       </c>
@@ -14329,12 +14329,12 @@
       <c r="T15" s="145"/>
     </row>
     <row r="16" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="164" t="s">
+      <c r="N16" s="159" t="s">
         <v>855</v>
       </c>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="166"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="161"/>
       <c r="R16" t="s">
         <v>411</v>
       </c>
@@ -14368,12 +14368,12 @@
       <c r="K17" s="52">
         <v>0</v>
       </c>
-      <c r="N17" s="164" t="s">
+      <c r="N17" s="159" t="s">
         <v>817</v>
       </c>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="166"/>
+      <c r="O17" s="160"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="161"/>
       <c r="R17" t="s">
         <v>841</v>
       </c>
@@ -14386,11 +14386,11 @@
       <c r="C18" t="s">
         <v>868</v>
       </c>
-      <c r="D18" s="153" t="s">
+      <c r="D18" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
       <c r="G18" t="s">
         <v>878</v>
       </c>
@@ -14406,19 +14406,19 @@
       <c r="K18" t="s">
         <v>874</v>
       </c>
-      <c r="N18" s="164" t="s">
+      <c r="N18" s="159" t="s">
         <v>816</v>
       </c>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="166"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="161"/>
       <c r="R18" t="s">
         <v>842</v>
       </c>
-      <c r="S18" s="152" t="s">
+      <c r="S18" s="179" t="s">
         <v>868</v>
       </c>
-      <c r="T18" s="152"/>
+      <c r="T18" s="179"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -14438,19 +14438,19 @@
       <c r="K19" t="s">
         <v>880</v>
       </c>
-      <c r="N19" s="164" t="s">
+      <c r="N19" s="159" t="s">
         <v>818</v>
       </c>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="166"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="161"/>
       <c r="R19" t="s">
         <v>843</v>
       </c>
-      <c r="S19" s="152" t="s">
+      <c r="S19" s="179" t="s">
         <v>869</v>
       </c>
-      <c r="T19" s="152"/>
+      <c r="T19" s="179"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -14474,12 +14474,12 @@
       <c r="K20" t="s">
         <v>881</v>
       </c>
-      <c r="N20" s="164" t="s">
+      <c r="N20" s="159" t="s">
         <v>820</v>
       </c>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="166"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="161"/>
       <c r="R20" t="s">
         <v>438</v>
       </c>
@@ -14506,12 +14506,12 @@
       </c>
       <c r="J21" s="139"/>
       <c r="K21" s="139"/>
-      <c r="N21" s="164" t="s">
+      <c r="N21" s="159" t="s">
         <v>821</v>
       </c>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="166"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="161"/>
       <c r="R21" t="s">
         <v>844</v>
       </c>
@@ -14538,12 +14538,12 @@
       </c>
       <c r="J22" s="139"/>
       <c r="K22" s="139"/>
-      <c r="N22" s="164" t="s">
+      <c r="N22" s="159" t="s">
         <v>822</v>
       </c>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="166"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="161"/>
       <c r="R22" t="s">
         <v>846</v>
       </c>
@@ -14553,27 +14553,27 @@
       <c r="T22" s="145"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="164" t="s">
+      <c r="N23" s="159" t="s">
         <v>823</v>
       </c>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="166"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="161"/>
       <c r="R23" t="s">
         <v>847</v>
       </c>
-      <c r="S23" s="152" t="s">
+      <c r="S23" s="179" t="s">
         <v>618</v>
       </c>
-      <c r="T23" s="152"/>
+      <c r="T23" s="179"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="164" t="s">
+      <c r="N24" s="159" t="s">
         <v>824</v>
       </c>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="166"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="161"/>
       <c r="R24" t="s">
         <v>439</v>
       </c>
@@ -14583,12 +14583,12 @@
       <c r="T24" s="145"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N25" s="164" t="s">
+      <c r="N25" s="159" t="s">
         <v>825</v>
       </c>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="166"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="161"/>
       <c r="R25" t="s">
         <v>848</v>
       </c>
@@ -14598,12 +14598,12 @@
       <c r="T25" s="145"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="164" t="s">
+      <c r="N26" s="159" t="s">
         <v>826</v>
       </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="166"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="161"/>
       <c r="R26" t="s">
         <v>849</v>
       </c>
@@ -14613,12 +14613,12 @@
       <c r="T26" s="145"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N27" s="164" t="s">
+      <c r="N27" s="159" t="s">
         <v>827</v>
       </c>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="166"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="161"/>
       <c r="R27" t="s">
         <v>850</v>
       </c>
@@ -14628,12 +14628,12 @@
       <c r="T27" s="145"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="164" t="s">
+      <c r="N28" s="159" t="s">
         <v>830</v>
       </c>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="166"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="161"/>
       <c r="R28" t="s">
         <v>441</v>
       </c>
@@ -14643,12 +14643,12 @@
       <c r="T28" s="145"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="164" t="s">
+      <c r="N29" s="159" t="s">
         <v>831</v>
       </c>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="166"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="161"/>
       <c r="R29" t="s">
         <v>845</v>
       </c>
@@ -14658,57 +14658,57 @@
       <c r="T29" s="145"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="164" t="s">
+      <c r="N30" s="159" t="s">
         <v>832</v>
       </c>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="166"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="161"/>
       <c r="R30" t="s">
         <v>851</v>
       </c>
-      <c r="S30" s="152" t="s">
+      <c r="S30" s="179" t="s">
         <v>870</v>
       </c>
-      <c r="T30" s="152"/>
+      <c r="T30" s="179"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="164" t="s">
+      <c r="N31" s="159" t="s">
         <v>833</v>
       </c>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="166"/>
+      <c r="O31" s="160"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="161"/>
       <c r="R31" t="s">
         <v>852</v>
       </c>
-      <c r="S31" s="152" t="s">
+      <c r="S31" s="179" t="s">
         <v>871</v>
       </c>
-      <c r="T31" s="152"/>
+      <c r="T31" s="179"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N32" s="164" t="s">
+      <c r="N32" s="159" t="s">
         <v>856</v>
       </c>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="166"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="161"/>
       <c r="R32" t="s">
         <v>451</v>
       </c>
-      <c r="S32" s="152" t="s">
+      <c r="S32" s="179" t="s">
         <v>872</v>
       </c>
-      <c r="T32" s="152"/>
+      <c r="T32" s="179"/>
     </row>
     <row r="33" spans="14:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="173" t="s">
+      <c r="N33" s="152" t="s">
         <v>835</v>
       </c>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="175"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="154"/>
       <c r="R33" t="s">
         <v>853</v>
       </c>
@@ -14716,19 +14716,67 @@
         <v>618</v>
       </c>
       <c r="T33" s="145"/>
-      <c r="U33" s="176"/>
-      <c r="V33" s="176"/>
-      <c r="W33" s="176"/>
-      <c r="X33" s="176"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
     </row>
     <row r="34" spans="14:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="176"/>
-      <c r="V34" s="176"/>
-      <c r="W34" s="176"/>
-      <c r="X34" s="176"/>
+      <c r="U34" s="155"/>
+      <c r="V34" s="155"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J3:Y3"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="U33:X33"/>
     <mergeCell ref="U34:X34"/>
@@ -14745,54 +14793,6 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J3:Y3"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S22:T22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/core/DRV_BUS_and_more.xlsx
+++ b/doc/core/DRV_BUS_and_more.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="12900" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="12900" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DRV_bus" sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="938">
   <si>
     <t>Index</t>
   </si>
@@ -5253,9 +5253,6 @@
     <t>FD_TYPE</t>
   </si>
   <si>
-    <t>107-90</t>
-  </si>
-  <si>
     <t>272-257</t>
   </si>
   <si>
@@ -5320,6 +5317,18 @@
   </si>
   <si>
     <t>Logic 1 indicates that data from Avalon access will be written into TX Buffer 2</t>
+  </si>
+  <si>
+    <t>99-90</t>
+  </si>
+  <si>
+    <t>107-100</t>
+  </si>
+  <si>
+    <t>err_capt</t>
+  </si>
+  <si>
+    <t>Error capture register</t>
   </si>
 </sst>
 </file>
@@ -6220,8 +6229,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6231,6 +6256,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6262,28 +6289,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6298,11 +6304,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6314,24 +6324,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6359,36 +6381,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -7451,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
@@ -7463,7 +7472,7 @@
         <v>134</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -7498,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -7510,7 +7519,7 @@
         <v>134</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H36" s="9"/>
     </row>
@@ -9551,10 +9560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10178,10 +10187,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
       <c r="B35" s="43">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>168</v>
@@ -10190,640 +10199,641 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
+        <v>935</v>
+      </c>
+      <c r="B36" s="43">
+        <v>8</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>936</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>937</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
         <v>600</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B37" s="43">
         <v>2</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C37" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="43" t="s">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
         <v>110</v>
-      </c>
-      <c r="B37" s="43">
-        <v>1</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>111</v>
       </c>
       <c r="B38" s="43">
         <v>1</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="43">
         <v>1</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="43">
         <v>1</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="43">
         <v>1</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="43">
         <v>1</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D42" s="9">
         <v>0</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="43">
         <v>1</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="43">
         <v>1</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="43">
         <v>1</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D45" s="9">
         <v>0</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="43">
         <v>1</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="43">
         <v>1</v>
       </c>
       <c r="C47" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>120</v>
+      </c>
+      <c r="B48" s="43">
+        <v>1</v>
+      </c>
+      <c r="C48" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="D47" s="9">
-        <v>0</v>
-      </c>
-      <c r="E47" s="43" t="s">
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="43" t="s">
         <v>359</v>
-      </c>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B48" s="43">
-        <v>29</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="D48" s="9">
-        <v>0</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>360</v>
       </c>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B49" s="43">
+        <v>29</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B50" s="43">
         <v>4</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C50" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="D49" s="9">
-        <v>0</v>
-      </c>
-      <c r="E49" s="43" t="s">
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="43" t="s">
         <v>361</v>
-      </c>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>154</v>
-      </c>
-      <c r="B50" s="43">
-        <v>1</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="D50" s="9">
-        <v>0</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>362</v>
       </c>
       <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="43">
         <v>1</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" s="43">
         <v>1</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" s="43">
         <v>1</v>
       </c>
       <c r="C53" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>157</v>
+      </c>
+      <c r="B54" s="43">
+        <v>1</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="D53" s="9">
-        <v>0</v>
-      </c>
-      <c r="E53" s="43" t="s">
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B55" s="43">
         <v>21</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C55" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="D54" s="9">
-        <v>0</v>
-      </c>
-      <c r="E54" s="43" t="s">
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="43" t="s">
         <v>366</v>
-      </c>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>179</v>
-      </c>
-      <c r="B55" s="43">
-        <v>1</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>378</v>
       </c>
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="43">
         <v>1</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="43">
         <v>1</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B58" s="43">
         <v>1</v>
       </c>
       <c r="C58" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>182</v>
+      </c>
+      <c r="B59" s="43">
+        <v>1</v>
+      </c>
+      <c r="C59" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="D58" s="9">
-        <v>0</v>
-      </c>
-      <c r="E58" s="43" t="s">
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="43" t="s">
         <v>376</v>
-      </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B59" s="43">
-        <v>5</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="D59" s="9">
-        <v>0</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>576</v>
       </c>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B60" s="43">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B61" s="43">
         <v>32</v>
       </c>
       <c r="C61" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B62" s="43">
+        <v>32</v>
+      </c>
+      <c r="C62" s="43" t="s">
         <v>585</v>
       </c>
-      <c r="D61" s="9">
-        <v>0</v>
-      </c>
-      <c r="E61" s="43" t="s">
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
+      <c r="E62" s="43" t="s">
         <v>586</v>
-      </c>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>252</v>
-      </c>
-      <c r="B62" s="43">
-        <v>1</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>802</v>
-      </c>
-      <c r="D62" s="9">
-        <v>0</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>803</v>
       </c>
       <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B63" s="43">
         <v>1</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B64" s="43">
         <v>1</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B65" s="43">
         <v>1</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>890</v>
+        <v>806</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B66" s="43">
         <v>1</v>
       </c>
       <c r="C66" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>256</v>
+      </c>
+      <c r="B67" s="43">
+        <v>1</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>892</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="43" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="43" t="s">
         <v>889</v>
-      </c>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>913</v>
-      </c>
-      <c r="B67" s="43">
-        <v>16</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>653</v>
-      </c>
-      <c r="D67" s="9">
-        <v>0</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>656</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B68" s="43">
         <v>16</v>
       </c>
       <c r="C68" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="B69" s="43">
+        <v>16</v>
+      </c>
+      <c r="C69" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="D68" s="9">
-        <v>0</v>
-      </c>
-      <c r="E68" s="43" t="s">
+      <c r="D69" s="9">
+        <v>0</v>
+      </c>
+      <c r="E69" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="B69" s="43">
-        <v>11</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="9">
-        <v>0</v>
-      </c>
-      <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B70" s="43">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>923</v>
+        <v>168</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>927</v>
-      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B71" s="43">
         <v>3</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>925</v>
-      </c>
-      <c r="D71">
+        <v>922</v>
+      </c>
+      <c r="D71" s="9">
         <v>0</v>
       </c>
       <c r="E71" s="9" t="s">
@@ -10832,16 +10842,33 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="B72" s="43">
+        <v>3</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>924</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B73" s="43">
+        <v>64</v>
+      </c>
+      <c r="C73" s="43" t="s">
         <v>928</v>
       </c>
-      <c r="B72" s="43">
-        <v>64</v>
-      </c>
-      <c r="C72" s="43" t="s">
+      <c r="E73" s="9" t="s">
         <v>929</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -10857,7 +10884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -10916,16 +10943,16 @@
       <c r="G6" s="99"/>
       <c r="H6" s="100"/>
       <c r="J6" t="s">
+        <v>914</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>918</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>917</v>
+      </c>
+      <c r="M6" s="77" t="s">
         <v>915</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>919</v>
-      </c>
-      <c r="L6" s="77" t="s">
-        <v>918</v>
-      </c>
-      <c r="M6" s="77" t="s">
-        <v>916</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>117</v>
@@ -10969,7 +10996,7 @@
         <v>114</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L7" s="77" t="s">
         <v>818</v>
@@ -11018,7 +11045,7 @@
       <c r="G8" s="107"/>
       <c r="H8" s="108"/>
       <c r="M8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="W8" s="29">
         <v>1</v>
@@ -11229,11 +11256,11 @@
   <sheetData>
     <row r="6" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
       <c r="J7" s="112" t="s">
         <v>83</v>
       </c>
@@ -11314,154 +11341,163 @@
       </c>
     </row>
     <row r="10" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
     </row>
     <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="J11" s="129" t="s">
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="J11" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="131"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="137"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="123"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="132" t="s">
+      <c r="K12" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="132"/>
+      <c r="L12" s="138"/>
       <c r="M12" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="132"/>
+      <c r="L13" s="138"/>
       <c r="M13" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="H20" s="115" t="s">
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="H20" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
       <c r="G21" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="117" t="s">
+      <c r="H21" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
       <c r="G22" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
       <c r="G23" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
       <c r="G24" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
     </row>
     <row r="25" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
       <c r="G25" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="117" t="s">
+      <c r="H25" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="119"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
     </row>
     <row r="26" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="H26" s="117" t="s">
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="H26" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="119"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123"/>
     </row>
     <row r="27" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="136"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="117" t="s">
+      <c r="H27" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="118"/>
-      <c r="J27" s="119"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="C26:E27"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
@@ -11475,15 +11511,6 @@
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11652,12 +11679,12 @@
       <c r="B2" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="46" t="s">
         <v>631</v>
       </c>
@@ -11690,12 +11717,12 @@
       <c r="B4" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="143" t="s">
         <v>657</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="43" t="s">
         <v>657</v>
       </c>
@@ -12124,12 +12151,12 @@
       <c r="B32" t="s">
         <v>641</v>
       </c>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="144" t="s">
         <v>588</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
       <c r="G32" t="s">
         <v>639</v>
       </c>
@@ -12138,12 +12165,12 @@
       <c r="B33" t="s">
         <v>659</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="144" t="s">
         <v>589</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
       <c r="G33" t="s">
         <v>640</v>
       </c>
@@ -12152,45 +12179,45 @@
       <c r="B34" t="s">
         <v>760</v>
       </c>
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>761</v>
       </c>
-      <c r="C35" s="140" t="s">
+      <c r="C35" s="144" t="s">
         <v>762</v>
       </c>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>764</v>
       </c>
-      <c r="C36" s="140" t="s">
+      <c r="C36" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>765</v>
       </c>
-      <c r="C37" s="140" t="s">
+      <c r="C37" s="144" t="s">
         <v>763</v>
       </c>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -12283,35 +12310,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C28:F28"/>
@@ -12327,6 +12325,35 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12384,16 +12411,16 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
-      <c r="O4" s="148" t="s">
+      <c r="O4" s="149" t="s">
         <v>388</v>
       </c>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="151"/>
       <c r="W4" s="147" t="s">
         <v>383</v>
       </c>
@@ -12724,14 +12751,14 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="148" t="s">
         <v>558</v>
       </c>
       <c r="H12" s="139"/>
       <c r="I12" s="139"/>
       <c r="J12" s="139"/>
       <c r="K12" s="139"/>
-      <c r="L12" s="146" t="s">
+      <c r="L12" s="148" t="s">
         <v>557</v>
       </c>
       <c r="M12" s="139"/>
@@ -12942,7 +12969,7 @@
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
       <c r="N19" s="55"/>
-      <c r="O19" s="146" t="s">
+      <c r="O19" s="148" t="s">
         <v>448</v>
       </c>
       <c r="P19" s="139"/>
@@ -13004,7 +13031,7 @@
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
-      <c r="O21" s="146" t="s">
+      <c r="O21" s="148" t="s">
         <v>449</v>
       </c>
       <c r="P21" s="139"/>
@@ -13033,16 +13060,16 @@
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
       <c r="N22" s="55"/>
-      <c r="O22" s="140" t="s">
+      <c r="O22" s="144" t="s">
         <v>450</v>
       </c>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="140"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="140"/>
-      <c r="U22" s="140"/>
-      <c r="V22" s="140"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="144"/>
       <c r="W22" t="s">
         <v>617</v>
       </c>
@@ -13061,7 +13088,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
-      <c r="N23" s="140" t="s">
+      <c r="N23" s="144" t="s">
         <v>457</v>
       </c>
       <c r="O23" s="145"/>
@@ -13090,7 +13117,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="55"/>
-      <c r="N24" s="140" t="s">
+      <c r="N24" s="144" t="s">
         <v>458</v>
       </c>
       <c r="O24" s="145"/>
@@ -13119,7 +13146,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
-      <c r="N25" s="140" t="s">
+      <c r="N25" s="144" t="s">
         <v>459</v>
       </c>
       <c r="O25" s="145"/>
@@ -13148,7 +13175,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
-      <c r="N26" s="140" t="s">
+      <c r="N26" s="144" t="s">
         <v>460</v>
       </c>
       <c r="O26" s="145"/>
@@ -13185,17 +13212,17 @@
       <c r="M27" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="N27" s="140" t="s">
+      <c r="N27" s="144" t="s">
         <v>464</v>
       </c>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="140"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="144"/>
+      <c r="T27" s="144"/>
+      <c r="U27" s="144"/>
+      <c r="V27" s="144"/>
       <c r="W27">
         <v>0</v>
       </c>
@@ -13646,17 +13673,17 @@
       <c r="C43" t="s">
         <v>531</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="146"/>
       <c r="O43" s="139" t="s">
         <v>532</v>
       </c>
@@ -13679,17 +13706,17 @@
       <c r="C44" t="s">
         <v>544</v>
       </c>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="146"/>
       <c r="O44" s="139" t="s">
         <v>132</v>
       </c>
@@ -13915,15 +13942,38 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="D45:V45"/>
-    <mergeCell ref="D46:V46"/>
-    <mergeCell ref="D43:N43"/>
-    <mergeCell ref="D44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="G42:V42"/>
+    <mergeCell ref="D51:V51"/>
+    <mergeCell ref="G20:S20"/>
+    <mergeCell ref="O37:V37"/>
+    <mergeCell ref="O38:V38"/>
+    <mergeCell ref="E33:V33"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="N24:V24"/>
+    <mergeCell ref="N23:V23"/>
+    <mergeCell ref="O49:V49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="N27:V27"/>
+    <mergeCell ref="E28:V28"/>
+    <mergeCell ref="G47:N47"/>
+    <mergeCell ref="O48:V48"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="O39:V39"/>
+    <mergeCell ref="O40:V40"/>
+    <mergeCell ref="D41:V41"/>
+    <mergeCell ref="E30:V30"/>
+    <mergeCell ref="E31:V31"/>
+    <mergeCell ref="E32:V32"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="N25:V25"/>
+    <mergeCell ref="E29:V29"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="O36:V36"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="O21:V21"/>
     <mergeCell ref="O19:V19"/>
@@ -13940,38 +13990,15 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="O39:V39"/>
-    <mergeCell ref="O40:V40"/>
-    <mergeCell ref="D41:V41"/>
-    <mergeCell ref="E30:V30"/>
-    <mergeCell ref="E31:V31"/>
-    <mergeCell ref="E32:V32"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="N25:V25"/>
-    <mergeCell ref="E29:V29"/>
-    <mergeCell ref="O35:T35"/>
-    <mergeCell ref="O36:V36"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="D51:V51"/>
-    <mergeCell ref="G20:S20"/>
-    <mergeCell ref="O37:V37"/>
-    <mergeCell ref="O38:V38"/>
-    <mergeCell ref="E33:V33"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="N24:V24"/>
-    <mergeCell ref="N23:V23"/>
-    <mergeCell ref="O49:V49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="N27:V27"/>
-    <mergeCell ref="E28:V28"/>
-    <mergeCell ref="G47:N47"/>
-    <mergeCell ref="O48:V48"/>
-    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="D45:V45"/>
+    <mergeCell ref="D46:V46"/>
+    <mergeCell ref="D43:N43"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="G42:V42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13994,33 +14021,33 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="158" t="s">
         <v>812</v>
       </c>
-      <c r="D3" s="171"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
-      <c r="J3" s="172" t="s">
+      <c r="J3" s="153" t="s">
         <v>388</v>
       </c>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="173"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153"/>
+      <c r="Y3" s="160"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="64"/>
@@ -14090,10 +14117,10 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="156" t="s">
         <v>810</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
@@ -14153,10 +14180,10 @@
       </c>
     </row>
     <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="156" t="s">
         <v>811</v>
       </c>
-      <c r="D6" s="169"/>
+      <c r="D6" s="157"/>
       <c r="E6" s="66" t="s">
         <v>835</v>
       </c>
@@ -14222,35 +14249,35 @@
       </c>
     </row>
     <row r="7" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="118" t="s">
         <v>900</v>
       </c>
-      <c r="D7" s="137"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
-      <c r="J7" s="174" t="s">
+      <c r="J7" s="161" t="s">
         <v>873</v>
       </c>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="156" t="s">
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="177" t="s">
         <v>836</v>
       </c>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="158"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="178"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
+      <c r="Y7" s="179"/>
     </row>
     <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="139" t="s">
@@ -14269,27 +14296,27 @@
         <v>791</v>
       </c>
       <c r="F12" s="139"/>
-      <c r="N12" s="165" t="s">
+      <c r="N12" s="170" t="s">
         <v>836</v>
       </c>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="167"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="172"/>
       <c r="R12" s="71" t="s">
         <v>837</v>
       </c>
-      <c r="S12" s="177" t="s">
+      <c r="S12" s="154" t="s">
         <v>866</v>
       </c>
-      <c r="T12" s="178"/>
+      <c r="T12" s="155"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N13" s="162" t="s">
+      <c r="N13" s="167" t="s">
         <v>813</v>
       </c>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="164"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
       <c r="R13" t="s">
         <v>838</v>
       </c>
@@ -14299,12 +14326,12 @@
       <c r="T13" s="145"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N14" s="159" t="s">
+      <c r="N14" s="164" t="s">
         <v>435</v>
       </c>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="161"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="166"/>
       <c r="R14" t="s">
         <v>839</v>
       </c>
@@ -14314,12 +14341,12 @@
       <c r="T14" s="145"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="159" t="s">
+      <c r="N15" s="164" t="s">
         <v>854</v>
       </c>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="161"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="166"/>
       <c r="R15" t="s">
         <v>840</v>
       </c>
@@ -14329,12 +14356,12 @@
       <c r="T15" s="145"/>
     </row>
     <row r="16" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="159" t="s">
+      <c r="N16" s="164" t="s">
         <v>855</v>
       </c>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="161"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="166"/>
       <c r="R16" t="s">
         <v>411</v>
       </c>
@@ -14368,12 +14395,12 @@
       <c r="K17" s="52">
         <v>0</v>
       </c>
-      <c r="N17" s="159" t="s">
+      <c r="N17" s="164" t="s">
         <v>817</v>
       </c>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="161"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="166"/>
       <c r="R17" t="s">
         <v>841</v>
       </c>
@@ -14386,11 +14413,11 @@
       <c r="C18" t="s">
         <v>868</v>
       </c>
-      <c r="D18" s="172" t="s">
+      <c r="D18" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
       <c r="G18" t="s">
         <v>878</v>
       </c>
@@ -14406,19 +14433,19 @@
       <c r="K18" t="s">
         <v>874</v>
       </c>
-      <c r="N18" s="159" t="s">
+      <c r="N18" s="164" t="s">
         <v>816</v>
       </c>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="161"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="166"/>
       <c r="R18" t="s">
         <v>842</v>
       </c>
-      <c r="S18" s="179" t="s">
+      <c r="S18" s="152" t="s">
         <v>868</v>
       </c>
-      <c r="T18" s="179"/>
+      <c r="T18" s="152"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -14438,19 +14465,19 @@
       <c r="K19" t="s">
         <v>880</v>
       </c>
-      <c r="N19" s="159" t="s">
+      <c r="N19" s="164" t="s">
         <v>818</v>
       </c>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="161"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="166"/>
       <c r="R19" t="s">
         <v>843</v>
       </c>
-      <c r="S19" s="179" t="s">
+      <c r="S19" s="152" t="s">
         <v>869</v>
       </c>
-      <c r="T19" s="179"/>
+      <c r="T19" s="152"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -14474,12 +14501,12 @@
       <c r="K20" t="s">
         <v>881</v>
       </c>
-      <c r="N20" s="159" t="s">
+      <c r="N20" s="164" t="s">
         <v>820</v>
       </c>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="161"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="166"/>
       <c r="R20" t="s">
         <v>438</v>
       </c>
@@ -14506,12 +14533,12 @@
       </c>
       <c r="J21" s="139"/>
       <c r="K21" s="139"/>
-      <c r="N21" s="159" t="s">
+      <c r="N21" s="164" t="s">
         <v>821</v>
       </c>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="161"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="166"/>
       <c r="R21" t="s">
         <v>844</v>
       </c>
@@ -14538,12 +14565,12 @@
       </c>
       <c r="J22" s="139"/>
       <c r="K22" s="139"/>
-      <c r="N22" s="159" t="s">
+      <c r="N22" s="164" t="s">
         <v>822</v>
       </c>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="161"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="166"/>
       <c r="R22" t="s">
         <v>846</v>
       </c>
@@ -14553,27 +14580,27 @@
       <c r="T22" s="145"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="159" t="s">
+      <c r="N23" s="164" t="s">
         <v>823</v>
       </c>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="161"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="166"/>
       <c r="R23" t="s">
         <v>847</v>
       </c>
-      <c r="S23" s="179" t="s">
+      <c r="S23" s="152" t="s">
         <v>618</v>
       </c>
-      <c r="T23" s="179"/>
+      <c r="T23" s="152"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="159" t="s">
+      <c r="N24" s="164" t="s">
         <v>824</v>
       </c>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="161"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="166"/>
       <c r="R24" t="s">
         <v>439</v>
       </c>
@@ -14583,12 +14610,12 @@
       <c r="T24" s="145"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N25" s="159" t="s">
+      <c r="N25" s="164" t="s">
         <v>825</v>
       </c>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="161"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="166"/>
       <c r="R25" t="s">
         <v>848</v>
       </c>
@@ -14598,12 +14625,12 @@
       <c r="T25" s="145"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="159" t="s">
+      <c r="N26" s="164" t="s">
         <v>826</v>
       </c>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="161"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="166"/>
       <c r="R26" t="s">
         <v>849</v>
       </c>
@@ -14613,12 +14640,12 @@
       <c r="T26" s="145"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N27" s="159" t="s">
+      <c r="N27" s="164" t="s">
         <v>827</v>
       </c>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="161"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="166"/>
       <c r="R27" t="s">
         <v>850</v>
       </c>
@@ -14628,12 +14655,12 @@
       <c r="T27" s="145"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="159" t="s">
+      <c r="N28" s="164" t="s">
         <v>830</v>
       </c>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="161"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="166"/>
       <c r="R28" t="s">
         <v>441</v>
       </c>
@@ -14643,12 +14670,12 @@
       <c r="T28" s="145"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="159" t="s">
+      <c r="N29" s="164" t="s">
         <v>831</v>
       </c>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="161"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="166"/>
       <c r="R29" t="s">
         <v>845</v>
       </c>
@@ -14658,57 +14685,57 @@
       <c r="T29" s="145"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="159" t="s">
+      <c r="N30" s="164" t="s">
         <v>832</v>
       </c>
-      <c r="O30" s="160"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="161"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="166"/>
       <c r="R30" t="s">
         <v>851</v>
       </c>
-      <c r="S30" s="179" t="s">
+      <c r="S30" s="152" t="s">
         <v>870</v>
       </c>
-      <c r="T30" s="179"/>
+      <c r="T30" s="152"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="159" t="s">
+      <c r="N31" s="164" t="s">
         <v>833</v>
       </c>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="161"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="165"/>
+      <c r="Q31" s="166"/>
       <c r="R31" t="s">
         <v>852</v>
       </c>
-      <c r="S31" s="179" t="s">
+      <c r="S31" s="152" t="s">
         <v>871</v>
       </c>
-      <c r="T31" s="179"/>
+      <c r="T31" s="152"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N32" s="159" t="s">
+      <c r="N32" s="164" t="s">
         <v>856</v>
       </c>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="161"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="166"/>
       <c r="R32" t="s">
         <v>451</v>
       </c>
-      <c r="S32" s="179" t="s">
+      <c r="S32" s="152" t="s">
         <v>872</v>
       </c>
-      <c r="T32" s="179"/>
+      <c r="T32" s="152"/>
     </row>
     <row r="33" spans="14:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="152" t="s">
+      <c r="N33" s="173" t="s">
         <v>835</v>
       </c>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="154"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="175"/>
       <c r="R33" t="s">
         <v>853</v>
       </c>
@@ -14716,19 +14743,67 @@
         <v>618</v>
       </c>
       <c r="T33" s="145"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
+      <c r="U33" s="176"/>
+      <c r="V33" s="176"/>
+      <c r="W33" s="176"/>
+      <c r="X33" s="176"/>
     </row>
     <row r="34" spans="14:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="155"/>
-      <c r="V34" s="155"/>
-      <c r="W34" s="155"/>
-      <c r="X34" s="155"/>
+      <c r="U34" s="176"/>
+      <c r="V34" s="176"/>
+      <c r="W34" s="176"/>
+      <c r="X34" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J3:Y3"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="D18:F18"/>
@@ -14745,54 +14820,6 @@
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="S31:T31"/>
     <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J3:Y3"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/core/DRV_BUS_and_more.xlsx
+++ b/doc/core/DRV_BUS_and_more.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="12900" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="12900" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="DRV_bus" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="567">
   <si>
     <t>Index</t>
   </si>
@@ -424,12 +424,6 @@
     <t>TX_Arbitrator</t>
   </si>
   <si>
-    <t>Logic 1 allows messages from tx buffer to be sent (set default)</t>
-  </si>
-  <si>
-    <t>Logic 1 allows messages from txt buffer to be sent (set default)</t>
-  </si>
-  <si>
     <t>drv_filter_ran_lo_th</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>Logic 1 stores the value on tran data in if there is enough place otherwise sets disc to logic 1</t>
   </si>
   <si>
-    <t>363-365</t>
-  </si>
-  <si>
     <t>reserved arbitrator</t>
   </si>
   <si>
@@ -1261,12 +1252,6 @@
     <t>Value of  Error Counter in nominal bit time</t>
   </si>
   <si>
-    <t>drv_allow_txt1</t>
-  </si>
-  <si>
-    <t>drv_allow_txt2</t>
-  </si>
-  <si>
     <t>drv_erase_txt1</t>
   </si>
   <si>
@@ -1895,6 +1880,9 @@
   </si>
   <si>
     <t>Error capture register</t>
+  </si>
+  <si>
+    <t>361-365</t>
   </si>
 </sst>
 </file>
@@ -2326,33 +2314,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2360,6 +2355,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2380,36 +2381,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -2711,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="F49" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2917,16 +2905,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>8</v>
@@ -2935,22 +2923,22 @@
         <v>9</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B11" s="9">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>
@@ -2959,13 +2947,13 @@
         <v>9</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2986,13 +2974,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B13" s="8">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3208,13 +3196,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9">
         <v>4</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="9">
         <v>1111</v>
@@ -3226,22 +3214,22 @@
         <v>37</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="9">
         <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>8</v>
@@ -3250,7 +3238,7 @@
         <v>37</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="26"/>
     </row>
@@ -3262,10 +3250,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>8</v>
@@ -3274,18 +3262,18 @@
         <v>37</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -3297,12 +3285,12 @@
         <v>37</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B27" s="9">
         <v>29</v>
@@ -3345,7 +3333,7 @@
         <v>69</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3356,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
@@ -3399,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -3411,12 +3399,12 @@
         <v>66</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B32" s="14">
         <v>3</v>
@@ -3446,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -3472,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
@@ -3484,7 +3472,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -3496,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
@@ -3519,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -3531,7 +3519,7 @@
         <v>74</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H36" s="9"/>
     </row>
@@ -3557,14 +3545,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>361</v>
+      <c r="A38" s="14" t="s">
+        <v>566</v>
       </c>
       <c r="B38" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
@@ -3574,175 +3562,178 @@
         <v>79</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
-        <v>362</v>
-      </c>
-      <c r="B39" s="14">
-        <v>1</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="8"/>
+      <c r="A39" s="9">
+        <v>366</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="9">
+        <v>367</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="14">
-        <v>3</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="14" t="s">
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>372</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>366</v>
-      </c>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="G42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="14">
+        <v>4</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>367</v>
-      </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="9">
-        <v>4</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="9"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>372</v>
-      </c>
-      <c r="B44" s="14">
-        <v>1</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="14"/>
+      <c r="A44">
+        <v>376</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45">
+        <v>377</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="14">
-        <v>4</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="14"/>
+      <c r="G45" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B46" s="9">
         <v>1</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
@@ -3751,21 +3742,21 @@
         <v>8</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B47" s="9">
         <v>1</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
@@ -3774,21 +3765,21 @@
         <v>8</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B48" s="9">
         <v>1</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
@@ -3797,21 +3788,21 @@
         <v>8</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -3820,21 +3811,21 @@
         <v>8</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" s="9">
         <v>0</v>
@@ -3843,21 +3834,21 @@
         <v>8</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B51" s="9">
         <v>1</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
@@ -3866,21 +3857,21 @@
         <v>8</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B52" s="9">
         <v>1</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
@@ -3889,21 +3880,21 @@
         <v>8</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B53" s="9">
         <v>1</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
@@ -3912,21 +3903,21 @@
         <v>8</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
@@ -3935,21 +3926,21 @@
         <v>8</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D55" s="9">
         <v>0</v>
@@ -3958,135 +3949,139 @@
         <v>8</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G55" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="9">
+        <v>13</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>386</v>
-      </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="9">
-        <v>0</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>387</v>
-      </c>
-      <c r="B57" s="9">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="14">
+        <v>8</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="14">
+        <v>96</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="9">
-        <v>0</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="14" t="s">
         <v>140</v>
       </c>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="9">
-        <v>13</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="9">
-        <v>0</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="A58" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="14">
+        <v>8</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="14">
+        <v>96</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
       <c r="B59" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>347</v>
+        <v>143</v>
       </c>
       <c r="D59" s="14">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="B60" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>352</v>
+        <v>145</v>
       </c>
       <c r="D60" s="14">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H60" s="14"/>
+        <v>348</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" s="14">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>146</v>
@@ -4098,120 +4093,117 @@
         <v>8</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G61" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>460</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>461</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B62" s="14">
-        <v>4</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="14">
-        <v>0</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" s="14">
-        <v>31</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="14">
-        <v>0</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D64" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>461</v>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="B65" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G65" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>470</v>
+      </c>
+      <c r="B66" s="9">
+        <v>1</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>465</v>
-      </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="D66" s="9">
         <v>0</v>
       </c>
@@ -4219,45 +4211,44 @@
         <v>8</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>153</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>471</v>
       </c>
       <c r="B67" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="D67" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
@@ -4266,21 +4257,21 @@
         <v>8</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B69" s="9">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
@@ -4289,21 +4280,21 @@
         <v>8</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
@@ -4312,18 +4303,18 @@
         <v>8</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>473</v>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>321</v>
       </c>
       <c r="B71" s="9">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>322</v>
@@ -4335,21 +4326,21 @@
         <v>8</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>474</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>507</v>
       </c>
       <c r="B72" s="9">
         <v>1</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -4358,206 +4349,206 @@
         <v>8</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>324</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>508</v>
       </c>
       <c r="B73" s="9">
+        <v>1</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>509</v>
+      </c>
+      <c r="B74" s="9">
+        <v>1</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>510</v>
+      </c>
+      <c r="B75" s="9">
+        <v>1</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>544</v>
+      </c>
+      <c r="B76" s="9">
+        <v>9</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" s="9">
         <v>32</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D73" s="9">
-        <v>0</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>507</v>
-      </c>
-      <c r="B74" s="9">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D74" s="9">
-        <v>0</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>508</v>
-      </c>
-      <c r="B75" s="9">
-        <v>1</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="C77" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>552</v>
+      </c>
+      <c r="B78" s="9">
+        <v>1</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="9">
-        <v>0</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G75" s="9" t="s">
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>509</v>
-      </c>
-      <c r="B76" s="9">
-        <v>1</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="D76" s="9">
-        <v>0</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>510</v>
-      </c>
-      <c r="B77" s="9">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="D77" s="9">
-        <v>0</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>549</v>
-      </c>
-      <c r="B78" s="9">
-        <v>9</v>
-      </c>
-      <c r="C78" s="9" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>533+20</f>
+        <v>553</v>
+      </c>
+      <c r="B79" s="9">
+        <v>1</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D78" s="9">
-        <v>0</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>458</v>
-      </c>
-      <c r="B79" s="9">
-        <v>32</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="D79" s="9">
+        <v>0</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>554</v>
+      </c>
+      <c r="B80" s="9">
+        <v>1</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="D79" s="9">
-        <v>0</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>552</v>
-      </c>
-      <c r="B80" s="9">
-        <v>1</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D80" s="9">
-        <v>0</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>533+20</f>
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B81" s="9">
         <v>1</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -4566,113 +4557,113 @@
         <v>8</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B82" s="9">
         <v>1</v>
       </c>
       <c r="C82" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="D82" s="9">
-        <v>0</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B83" s="9">
         <v>1</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="D83" s="9">
-        <v>0</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B84" s="9">
         <v>1</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G84" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="D84" s="9">
-        <v>0</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B85" s="9">
         <v>1</v>
       </c>
       <c r="C85" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D85" s="9">
-        <v>0</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="G85" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
@@ -4681,21 +4672,21 @@
         <v>8</v>
       </c>
       <c r="F86" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B87" s="9">
         <v>1</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D87" s="9">
         <v>0</v>
@@ -4704,202 +4695,202 @@
         <v>8</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B88" s="9">
         <v>1</v>
       </c>
       <c r="C88" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G88" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="D88" s="9">
-        <v>0</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B89" s="9">
         <v>1</v>
       </c>
       <c r="C89" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G89" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="D89" s="9">
-        <v>0</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B90" s="9">
         <v>1</v>
       </c>
       <c r="C90" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="D90" s="9">
-        <v>0</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
       </c>
       <c r="C91" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G91" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="D91" s="9">
-        <v>0</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B92" s="9">
         <v>1</v>
       </c>
       <c r="C92" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" s="9">
+        <v>0</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G92" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="D92" s="9">
-        <v>0</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B93" s="9">
         <v>1</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G93" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="D93" s="9">
-        <v>0</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B94" s="9">
         <v>1</v>
       </c>
       <c r="C94" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D94" s="9">
+        <v>0</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G94" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="D94" s="9">
-        <v>0</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B95" s="9">
         <v>1</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G95" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D95" s="9">
-        <v>0</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>568</v>
+      <c r="A96" t="s">
+        <v>454</v>
       </c>
       <c r="B96" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>402</v>
@@ -4911,67 +4902,67 @@
         <v>8</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>581</v>
+      </c>
+      <c r="B98" s="9">
+        <v>1</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98" s="9">
+        <v>0</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G98" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="D97" s="9">
-        <v>0</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>459</v>
-      </c>
-      <c r="B98" s="9">
-        <v>10</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D98" s="9">
-        <v>0</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B99" s="9">
         <v>1</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="D99" s="9">
         <v>0</v>
@@ -4980,21 +4971,21 @@
         <v>8</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B100" s="9">
         <v>1</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="D100" s="9">
         <v>0</v>
@@ -5003,274 +4994,274 @@
         <v>8</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B101" s="9">
         <v>1</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" s="9">
+        <v>0</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G101" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="D101" s="9">
-        <v>0</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B102" s="9">
         <v>1</v>
       </c>
       <c r="C102" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" s="9">
+        <v>0</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="D102" s="9">
-        <v>0</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B103" s="9">
         <v>1</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="D103" s="9">
-        <v>0</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B104" s="9">
         <v>1</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G104" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B105" s="9">
         <v>1</v>
       </c>
       <c r="C105" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D105" s="9">
+        <v>0</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G105" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="D105" s="9">
-        <v>0</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B106" s="9">
         <v>1</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G106" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="D106" s="9">
-        <v>0</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B107" s="9">
         <v>1</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D107" s="9">
+        <v>0</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G107" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="D107" s="9">
-        <v>0</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B108" s="9">
         <v>1</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="D108" s="9">
-        <v>0</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B109" s="9">
         <v>1</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D109" s="9">
+        <v>0</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G109" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D109" s="9">
-        <v>0</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B110" s="9">
         <v>1</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="9">
+        <v>0</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G110" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="D110" s="9">
-        <v>0</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B111" s="9">
         <v>1</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G111" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="D111" s="9">
-        <v>0</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B112" s="9">
         <v>1</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D112" s="9">
         <v>0</v>
@@ -5279,21 +5270,21 @@
         <v>8</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B113" s="9">
         <v>1</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D113" s="9">
         <v>0</v>
@@ -5302,38 +5293,38 @@
         <v>8</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B114" s="9">
         <v>1</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G114" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="D114" s="9">
-        <v>0</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B115" s="9">
         <v>1</v>
@@ -5348,7 +5339,7 @@
         <v>8</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>438</v>
@@ -5356,22 +5347,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B116" s="9">
         <v>1</v>
       </c>
       <c r="C116" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="D116" s="9">
-        <v>0</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>441</v>
@@ -5379,7 +5370,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B117" s="9">
         <v>1</v>
@@ -5394,21 +5385,21 @@
         <v>8</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>599</v>
+      <c r="A118" t="s">
+        <v>455</v>
       </c>
       <c r="B118" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="D118" s="9">
         <v>0</v>
@@ -5417,21 +5408,18 @@
         <v>8</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B119" s="9">
         <v>1</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D119" s="9">
         <v>0</v>
@@ -5440,41 +5428,44 @@
         <v>8</v>
       </c>
       <c r="F119" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>611</v>
+      </c>
+      <c r="B120" s="9">
+        <v>1</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D120" s="9">
+        <v>0</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G120" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>460</v>
-      </c>
-      <c r="B120" s="9">
-        <v>9</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D120" s="9">
-        <v>0</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B121" s="9">
         <v>1</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D121" s="9">
         <v>0</v>
@@ -5483,21 +5474,21 @@
         <v>8</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B122" s="9">
         <v>1</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D122" s="9">
         <v>0</v>
@@ -5506,60 +5497,14 @@
         <v>8</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>612</v>
-      </c>
-      <c r="B123" s="9">
-        <v>1</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="D123" s="9">
-        <v>0</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>613</v>
-      </c>
-      <c r="B124" s="9">
-        <v>1</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D124" s="9">
-        <v>0</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="9"/>
+      <c r="B123" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5599,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -5610,143 +5555,143 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="9">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B7" s="16">
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B8" s="16">
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>186</v>
-      </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -5758,410 +5703,410 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B11" s="16">
         <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B13" s="16">
         <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B16" s="16">
         <v>1</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B17" s="16">
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B18" s="16">
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B19" s="16">
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" s="16">
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B21" s="16">
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B23" s="16">
         <v>3</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D23" s="9">
         <v>5</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B24" s="16">
         <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B25" s="16">
         <v>4</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B27" s="16">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B28" s="16">
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D29" s="9">
         <v>0</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B30" s="16">
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B31" s="16">
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B32" s="16">
         <v>9</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -6173,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
@@ -6181,67 +6126,67 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B34" s="16">
         <v>9</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B35" s="16">
         <v>10</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B36" s="16">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B37" s="16">
         <v>2</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F37" s="9"/>
     </row>
@@ -6253,13 +6198,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F38" s="9"/>
     </row>
@@ -6271,13 +6216,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F39" s="9"/>
     </row>
@@ -6289,13 +6234,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F40" s="9"/>
     </row>
@@ -6307,13 +6252,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F41" s="9"/>
     </row>
@@ -6325,13 +6270,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D42" s="9">
         <v>0</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F42" s="9"/>
     </row>
@@ -6343,13 +6288,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F43" s="9"/>
     </row>
@@ -6361,13 +6306,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F44" s="9"/>
     </row>
@@ -6379,13 +6324,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D45" s="9">
         <v>0</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F45" s="9"/>
     </row>
@@ -6397,13 +6342,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F46" s="9"/>
     </row>
@@ -6415,13 +6360,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F47" s="9"/>
     </row>
@@ -6433,49 +6378,49 @@
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B49" s="16">
         <v>29</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B50" s="16">
         <v>4</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D50" s="9">
         <v>0</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F50" s="9"/>
     </row>
@@ -6487,13 +6432,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F51" s="9"/>
     </row>
@@ -6505,13 +6450,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F52" s="9"/>
     </row>
@@ -6523,13 +6468,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F53" s="9"/>
     </row>
@@ -6541,31 +6486,31 @@
         <v>1</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B55" s="16">
         <v>21</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D55" s="9">
         <v>0</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F55" s="9"/>
     </row>
@@ -6577,13 +6522,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F56" s="9"/>
     </row>
@@ -6595,13 +6540,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F57" s="9"/>
     </row>
@@ -6613,13 +6558,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F58" s="9"/>
     </row>
@@ -6631,67 +6576,67 @@
         <v>1</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D59" s="9">
         <v>0</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B60" s="16">
         <v>5</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B61" s="16">
         <v>32</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D61" s="9">
         <v>0</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B62" s="16">
         <v>32</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D62" s="9">
         <v>0</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F62" s="9"/>
     </row>
@@ -6703,13 +6648,13 @@
         <v>1</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F63" s="9"/>
     </row>
@@ -6721,13 +6666,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F64" s="9"/>
     </row>
@@ -6739,13 +6684,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F65" s="9"/>
     </row>
@@ -6757,13 +6702,13 @@
         <v>1</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D66" s="9">
         <v>0</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F66" s="9"/>
     </row>
@@ -6775,59 +6720,59 @@
         <v>1</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="16" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B68" s="16">
         <v>16</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>355</v>
-      </c>
-      <c r="D68" s="9">
-        <v>0</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>358</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B69" s="16">
         <v>16</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B70" s="16">
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
@@ -6837,50 +6782,50 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B71" s="16">
         <v>3</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D71" s="9">
         <v>0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B72" s="16">
         <v>3</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B73" s="16">
         <v>64</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -6896,7 +6841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N26" sqref="N26:Q26"/>
     </sheetView>
   </sheetViews>
@@ -6907,33 +6852,33 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="D3" s="51"/>
+      <c r="C3" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="37"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53"/>
+      <c r="J3" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="38"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="21"/>
@@ -7003,258 +6948,258 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="49"/>
+      <c r="C5" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="35"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="H6" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="I6" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="P6" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="V5" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="W5" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y5" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="48" t="s">
+      <c r="T6" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>477</v>
-      </c>
       <c r="U6" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="C7" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="54" t="s">
-        <v>524</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38"/>
+      <c r="J7" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="59"/>
     </row>
     <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="30" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="N12" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="N12" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="S12" s="57" t="s">
-        <v>518</v>
-      </c>
-      <c r="T12" s="58"/>
+        <v>493</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N13" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="44"/>
+      <c r="N13" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
       <c r="R13" t="s">
-        <v>499</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T13" s="31"/>
+        <v>494</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N14" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
+      <c r="N14" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="44"/>
       <c r="R14" t="s">
-        <v>500</v>
-      </c>
-      <c r="S14" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T14" s="31"/>
+        <v>495</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T14" s="29"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
+      <c r="N15" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="44"/>
       <c r="R15" t="s">
-        <v>501</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T15" s="31"/>
+        <v>496</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
+      <c r="N16" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="44"/>
       <c r="R16" t="s">
-        <v>297</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T16" s="31"/>
+        <v>294</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="17">
@@ -7281,367 +7226,415 @@
       <c r="K17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="41"/>
+      <c r="N17" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
       <c r="R17" t="s">
-        <v>502</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T17" s="31"/>
+        <v>497</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T17" s="29"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="52" t="s">
+        <v>514</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H18" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K18" t="s">
-        <v>525</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
+        <v>520</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="44"/>
       <c r="R18" t="s">
-        <v>503</v>
-      </c>
-      <c r="S18" s="59" t="s">
-        <v>519</v>
-      </c>
-      <c r="T18" s="59"/>
+        <v>498</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="T18" s="28"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="K19" t="s">
-        <v>531</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>479</v>
-      </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
+        <v>526</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
       <c r="R19" t="s">
-        <v>504</v>
-      </c>
-      <c r="S19" s="59" t="s">
-        <v>520</v>
-      </c>
-      <c r="T19" s="59"/>
+        <v>499</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="T19" s="28"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>521</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="G20" s="30"/>
+        <v>516</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="G20" s="31"/>
       <c r="H20" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="I20" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="J20" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K20" t="s">
-        <v>532</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
+        <v>527</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="44"/>
       <c r="R20" t="s">
-        <v>299</v>
-      </c>
-      <c r="S20" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T20" s="31"/>
+        <v>296</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>522</v>
-      </c>
-      <c r="D21" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" t="s">
-        <v>537</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="N21" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="41"/>
+        <v>532</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="N21" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
       <c r="R21" t="s">
-        <v>505</v>
-      </c>
-      <c r="S21" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T21" s="31"/>
+        <v>500</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T21" s="29"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>538</v>
-      </c>
-      <c r="D22" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" t="s">
-        <v>537</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="N22" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="N22" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" t="s">
+        <v>502</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" t="s">
+        <v>503</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="T23" s="28"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" t="s">
+        <v>297</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" t="s">
+        <v>504</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T25" s="29"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" t="s">
+        <v>505</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T26" s="29"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" t="s">
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" t="s">
+        <v>506</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N28" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" t="s">
+        <v>298</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T28" s="29"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N29" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" t="s">
+        <v>501</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T29" s="29"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N30" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" t="s">
         <v>507</v>
       </c>
-      <c r="S22" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T22" s="31"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" t="s">
+      <c r="S30" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="T30" s="28"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" t="s">
         <v>508</v>
       </c>
-      <c r="S23" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="T23" s="59"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" t="s">
-        <v>300</v>
-      </c>
-      <c r="S24" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T24" s="31"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N25" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" t="s">
+      <c r="S31" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="T31" s="28"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N32" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" t="s">
+        <v>299</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="T32" s="28"/>
+    </row>
+    <row r="33" spans="14:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" t="s">
         <v>509</v>
       </c>
-      <c r="S25" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T25" s="31"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" t="s">
-        <v>510</v>
-      </c>
-      <c r="S26" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T26" s="31"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N27" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" t="s">
-        <v>511</v>
-      </c>
-      <c r="S27" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T27" s="31"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" t="s">
-        <v>301</v>
-      </c>
-      <c r="S28" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T28" s="31"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" t="s">
-        <v>506</v>
-      </c>
-      <c r="S29" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T29" s="31"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" t="s">
-        <v>512</v>
-      </c>
-      <c r="S30" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="T30" s="59"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" t="s">
-        <v>513</v>
-      </c>
-      <c r="S31" s="59" t="s">
-        <v>522</v>
-      </c>
-      <c r="T31" s="59"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N32" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" t="s">
-        <v>302</v>
-      </c>
-      <c r="S32" s="59" t="s">
-        <v>523</v>
-      </c>
-      <c r="T32" s="59"/>
-    </row>
-    <row r="33" spans="14:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" t="s">
-        <v>514</v>
-      </c>
-      <c r="S33" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="T33" s="31"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
+      <c r="S33" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T33" s="29"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
     </row>
     <row r="34" spans="14:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J3:Y3"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="D18:F18"/>
@@ -7658,54 +7651,6 @@
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="S31:T31"/>
     <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J3:Y3"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/core/DRV_BUS_and_more.xlsx
+++ b/doc/core/DRV_BUS_and_more.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="569">
   <si>
     <t>Index</t>
   </si>
@@ -1883,6 +1883,12 @@
   </si>
   <si>
     <t>361-365</t>
+  </si>
+  <si>
+    <t>drv_rtsopt</t>
+  </si>
+  <si>
+    <t>Receive Buffer timestamp options (Sample at the end of CAN Frame or Beginning of CAN Frame)</t>
   </si>
 </sst>
 </file>
@@ -2314,40 +2320,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2381,23 +2370,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -2701,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>146</v>
+        <v>567</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
@@ -3353,7 +3359,9 @@
       <c r="F29" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>568</v>
+      </c>
       <c r="H29" s="8" t="s">
         <v>71</v>
       </c>
@@ -6852,33 +6860,33 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="38"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="52"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="21"/>
@@ -6948,10 +6956,10 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -7011,10 +7019,10 @@
       </c>
     </row>
     <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="23" t="s">
         <v>491</v>
       </c>
@@ -7080,126 +7088,126 @@
       </c>
     </row>
     <row r="7" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="57" t="s">
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="34"/>
     </row>
     <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="N12" s="50" t="s">
+      <c r="F12" s="46"/>
+      <c r="N12" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
       <c r="R12" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="T12" s="33"/>
+      <c r="T12" s="57"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
       <c r="R13" t="s">
         <v>494</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T13" s="29"/>
+      <c r="T13" s="58"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
       <c r="R14" t="s">
         <v>495</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T14" s="29"/>
+      <c r="T14" s="58"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
       <c r="R15" t="s">
         <v>496</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T15" s="29"/>
+      <c r="T15" s="58"/>
     </row>
     <row r="16" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
       <c r="R16" t="s">
         <v>294</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="S16" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T16" s="29"/>
+      <c r="T16" s="58"/>
     </row>
     <row r="17" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="17">
@@ -7226,29 +7234,29 @@
       <c r="K17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
       <c r="R17" t="s">
         <v>497</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="S17" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T17" s="29"/>
+      <c r="T17" s="58"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>514</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" t="s">
         <v>524</v>
       </c>
@@ -7264,62 +7272,62 @@
       <c r="K18" t="s">
         <v>520</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
       <c r="R18" t="s">
         <v>498</v>
       </c>
-      <c r="S18" s="28" t="s">
+      <c r="S18" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="T18" s="28"/>
+      <c r="T18" s="59"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>515</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" t="s">
         <v>525</v>
       </c>
       <c r="K19" t="s">
         <v>526</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
       <c r="R19" t="s">
         <v>499</v>
       </c>
-      <c r="S19" s="28" t="s">
+      <c r="S19" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="T19" s="28"/>
+      <c r="T19" s="59"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>516</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="46"/>
       <c r="H20" t="s">
         <v>530</v>
       </c>
@@ -7332,261 +7340,309 @@
       <c r="K20" t="s">
         <v>527</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
       <c r="R20" t="s">
         <v>296</v>
       </c>
-      <c r="S20" s="29" t="s">
+      <c r="S20" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T20" s="29"/>
+      <c r="T20" s="58"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>517</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" t="s">
         <v>532</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="N21" s="42" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="N21" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
       <c r="R21" t="s">
         <v>500</v>
       </c>
-      <c r="S21" s="29" t="s">
+      <c r="S21" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T21" s="29"/>
+      <c r="T21" s="58"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>533</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
       <c r="H22" t="s">
         <v>532</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="N22" s="42" t="s">
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="N22" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="44"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
       <c r="R22" t="s">
         <v>502</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T22" s="29"/>
+      <c r="T22" s="58"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
       <c r="R23" t="s">
         <v>503</v>
       </c>
-      <c r="S23" s="28" t="s">
+      <c r="S23" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="T23" s="28"/>
+      <c r="T23" s="59"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="42" t="s">
+      <c r="N24" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="44"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
       <c r="R24" t="s">
         <v>297</v>
       </c>
-      <c r="S24" s="29" t="s">
+      <c r="S24" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T24" s="29"/>
+      <c r="T24" s="58"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N25" s="42" t="s">
+      <c r="N25" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
       <c r="R25" t="s">
         <v>504</v>
       </c>
-      <c r="S25" s="29" t="s">
+      <c r="S25" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T25" s="29"/>
+      <c r="T25" s="58"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="42" t="s">
+      <c r="N26" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
       <c r="R26" t="s">
         <v>505</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="S26" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T26" s="29"/>
+      <c r="T26" s="58"/>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="44"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
       <c r="R27" t="s">
         <v>506</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T27" s="29"/>
+      <c r="T27" s="58"/>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="42" t="s">
+      <c r="N28" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="44"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
       <c r="R28" t="s">
         <v>298</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T28" s="29"/>
+      <c r="T28" s="58"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="42" t="s">
+      <c r="N29" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
       <c r="R29" t="s">
         <v>501</v>
       </c>
-      <c r="S29" s="29" t="s">
+      <c r="S29" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T29" s="29"/>
+      <c r="T29" s="58"/>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="42" t="s">
+      <c r="N30" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="44"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
       <c r="R30" t="s">
         <v>507</v>
       </c>
-      <c r="S30" s="28" t="s">
+      <c r="S30" s="59" t="s">
         <v>516</v>
       </c>
-      <c r="T30" s="28"/>
+      <c r="T30" s="59"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="42" t="s">
+      <c r="N31" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="44"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
       <c r="R31" t="s">
         <v>508</v>
       </c>
-      <c r="S31" s="28" t="s">
+      <c r="S31" s="59" t="s">
         <v>517</v>
       </c>
-      <c r="T31" s="28"/>
+      <c r="T31" s="59"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N32" s="42" t="s">
+      <c r="N32" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="44"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
       <c r="R32" t="s">
         <v>299</v>
       </c>
-      <c r="S32" s="28" t="s">
+      <c r="S32" s="59" t="s">
         <v>518</v>
       </c>
-      <c r="T32" s="28"/>
+      <c r="T32" s="59"/>
     </row>
     <row r="33" spans="14:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="53" t="s">
+      <c r="N33" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="30"/>
       <c r="R33" t="s">
         <v>509</v>
       </c>
-      <c r="S33" s="29" t="s">
+      <c r="S33" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="T33" s="29"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
     </row>
     <row r="34" spans="14:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J3:Y3"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="U33:X33"/>
     <mergeCell ref="U34:X34"/>
@@ -7603,54 +7659,6 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J3:Y3"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S22:T22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/core/DRV_BUS_and_more.xlsx
+++ b/doc/core/DRV_BUS_and_more.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="561">
   <si>
     <t>Index</t>
   </si>
@@ -517,87 +517,12 @@
     <t xml:space="preserve">reserved </t>
   </si>
   <si>
-    <t>drv_bus_err_int_ena</t>
-  </si>
-  <si>
     <t>Interrupt manager</t>
   </si>
   <si>
-    <t>drv_arb_lst_int_ena</t>
-  </si>
-  <si>
-    <t>Arbitration lost Interrupt Ennable</t>
-  </si>
-  <si>
-    <t>Bus Error Interrupt Enable</t>
-  </si>
-  <si>
-    <t>drv_err_pas_int_ena</t>
-  </si>
-  <si>
-    <t>Error State Changed Interrupt enable (error pasive-&gt;error active or vice versa)</t>
-  </si>
-  <si>
-    <t>drv_wake_int_ena</t>
-  </si>
-  <si>
-    <t>Wake Up Interrupt Enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drv_dov_int_ena </t>
-  </si>
-  <si>
-    <t>Data OverRun Interrupt enable</t>
-  </si>
-  <si>
-    <t>drv_err_war_int_ena</t>
-  </si>
-  <si>
-    <t>Error warning limit reached interrupt enable</t>
-  </si>
-  <si>
-    <t>drt_tx_int_ena</t>
-  </si>
-  <si>
-    <t>Sucesfull message transcieve interrupt enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drv_rx_int_ena </t>
-  </si>
-  <si>
-    <t>Sucesfull message recieve interrupt enable</t>
-  </si>
-  <si>
-    <t>drv_log_fin_int_ena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Logging  finished </t>
-  </si>
-  <si>
-    <t>drv_rx_full_int_ena</t>
-  </si>
-  <si>
-    <t>Recieve Buffer is full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drv_brs_int_ena </t>
-  </si>
-  <si>
-    <t>Bit Rate Shifted interrupt enable</t>
-  </si>
-  <si>
     <t xml:space="preserve">unused </t>
   </si>
   <si>
-    <t>388-399</t>
-  </si>
-  <si>
-    <t>drv_int_vect_erase</t>
-  </si>
-  <si>
-    <t>Erase Interrupt vector</t>
-  </si>
-  <si>
     <t>400-407</t>
   </si>
   <si>
@@ -1889,6 +1814,57 @@
   </si>
   <si>
     <t>Receive Buffer timestamp options (Sample at the end of CAN Frame or Beginning of CAN Frame)</t>
+  </si>
+  <si>
+    <t>376-399</t>
+  </si>
+  <si>
+    <t>768-778</t>
+  </si>
+  <si>
+    <t>int_ena_set</t>
+  </si>
+  <si>
+    <t>Interrupt Manager</t>
+  </si>
+  <si>
+    <t>800-810</t>
+  </si>
+  <si>
+    <t>int_ena_clear</t>
+  </si>
+  <si>
+    <t>Interrupt enable clear</t>
+  </si>
+  <si>
+    <t>736-746</t>
+  </si>
+  <si>
+    <t>int_clear</t>
+  </si>
+  <si>
+    <t>Clear the Interrupt status</t>
+  </si>
+  <si>
+    <t>832-842</t>
+  </si>
+  <si>
+    <t>int_mask_set</t>
+  </si>
+  <si>
+    <t>Interrupt mask set</t>
+  </si>
+  <si>
+    <t>Interrupt enable set</t>
+  </si>
+  <si>
+    <t>864-874</t>
+  </si>
+  <si>
+    <t>int_mask_clear</t>
+  </si>
+  <si>
+    <t>Interrupt mask clear</t>
   </si>
 </sst>
 </file>
@@ -2320,23 +2296,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2370,40 +2363,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -2705,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>101</v>
@@ -2935,16 +2911,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="B11" s="9">
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>8</v>
@@ -2959,7 +2935,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2980,13 +2956,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="B13" s="8">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3273,13 +3249,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -3291,12 +3267,12 @@
         <v>37</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B27" s="9">
         <v>29</v>
@@ -3350,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
@@ -3360,7 +3336,7 @@
         <v>66</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>71</v>
@@ -3395,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -3407,12 +3383,12 @@
         <v>66</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="B32" s="14">
         <v>3</v>
@@ -3442,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -3468,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
@@ -3480,7 +3456,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -3492,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
@@ -3515,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="D36" s="9">
         <v>0</v>
@@ -3527,7 +3503,7 @@
         <v>74</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="H36" s="9"/>
     </row>
@@ -3554,7 +3530,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="B38" s="14">
         <v>3</v>
@@ -3688,245 +3664,254 @@
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>376</v>
+      <c r="A44" t="s">
+        <v>544</v>
       </c>
       <c r="B44" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="9" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="14">
+        <v>8</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="14">
+        <v>96</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>377</v>
-      </c>
-      <c r="B45" s="9">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="9" t="s">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="14">
+        <v>8</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="14">
+        <v>96</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>378</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="9">
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="14" t="s">
         <v>117</v>
       </c>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>379</v>
-      </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="14">
+        <v>9</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="9">
-        <v>0</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="9" t="s">
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>119</v>
       </c>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>380</v>
-      </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="14">
+        <v>4</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="9">
-        <v>0</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B49" s="14">
+        <v>31</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>381</v>
-      </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>460</v>
+      </c>
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>461</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="9">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>465</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>382</v>
-      </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="9">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="9" t="s">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>383</v>
-      </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B53" s="9">
+        <v>4</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="9">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="9" t="s">
+      <c r="D53" s="9">
+        <v>15</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>384</v>
-      </c>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>385</v>
-      </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="9" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>470</v>
+      </c>
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>386</v>
-      </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="D54" s="9">
         <v>0</v>
       </c>
@@ -3934,21 +3919,21 @@
         <v>8</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>387</v>
+      <c r="A55" s="9">
+        <v>471</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="D55" s="9">
         <v>0</v>
@@ -3957,21 +3942,21 @@
         <v>8</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>135</v>
+      <c r="A56" s="9">
+        <v>472</v>
       </c>
       <c r="B56" s="9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
@@ -3980,145 +3965,139 @@
         <v>8</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="14">
-        <v>8</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D57" s="14">
-        <v>96</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="14"/>
+      <c r="A57" s="9">
+        <v>473</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="14">
-        <v>8</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D58" s="14">
-        <v>96</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H58" s="14"/>
+      <c r="A58" s="9">
+        <v>474</v>
+      </c>
+      <c r="B58" s="9">
+        <v>1</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" s="14">
-        <v>9</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="14">
-        <v>0</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="14"/>
+      <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="9">
+        <v>32</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B60" s="14">
-        <v>4</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="14">
-        <v>0</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>71</v>
+      <c r="A60">
+        <v>507</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B61" s="14">
-        <v>31</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>65</v>
+      <c r="A61">
+        <v>508</v>
+      </c>
+      <c r="B61" s="9">
+        <v>1</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>460</v>
+      <c r="A62">
+        <v>509</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>155</v>
+        <v>516</v>
       </c>
       <c r="D62" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>8</v>
@@ -4127,19 +4106,18 @@
         <v>108</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H62" s="9"/>
+        <v>517</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>461</v>
+      <c r="A63">
+        <v>510</v>
       </c>
       <c r="B63" s="9">
         <v>1</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
@@ -4151,19 +4129,18 @@
         <v>108</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H63" s="9"/>
+        <v>520</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>465</v>
+      <c r="A64" t="s">
+        <v>519</v>
       </c>
       <c r="B64" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
@@ -4175,42 +4152,41 @@
         <v>108</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H64" s="9"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>150</v>
+      <c r="A65" t="s">
+        <v>428</v>
       </c>
       <c r="B65" s="9">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="D65" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>152</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>470</v>
+      <c r="A66">
+        <v>552</v>
       </c>
       <c r="B66" s="9">
         <v>1</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>156</v>
+        <v>338</v>
       </c>
       <c r="D66" s="9">
         <v>0</v>
@@ -4219,21 +4195,22 @@
         <v>8</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>471</v>
+      <c r="A67">
+        <f>533+20</f>
+        <v>553</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="D67" s="9">
         <v>0</v>
@@ -4242,21 +4219,21 @@
         <v>8</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>472</v>
+      <c r="A68">
+        <v>554</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
@@ -4265,21 +4242,21 @@
         <v>8</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>473</v>
+      <c r="A69">
+        <v>555</v>
       </c>
       <c r="B69" s="9">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
@@ -4288,21 +4265,21 @@
         <v>8</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
-        <v>474</v>
+      <c r="A70">
+        <v>556</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
@@ -4311,21 +4288,21 @@
         <v>8</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>321</v>
+      <c r="A71">
+        <v>557</v>
       </c>
       <c r="B71" s="9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D71" s="9">
         <v>0</v>
@@ -4334,21 +4311,21 @@
         <v>8</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="B72" s="9">
         <v>1</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -4357,21 +4334,21 @@
         <v>8</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="B73" s="9">
         <v>1</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D73" s="9">
         <v>0</v>
@@ -4380,21 +4357,21 @@
         <v>8</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="B74" s="9">
         <v>1</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>541</v>
+        <v>356</v>
       </c>
       <c r="D74" s="9">
         <v>0</v>
@@ -4403,21 +4380,21 @@
         <v>8</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>542</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="B75" s="9">
         <v>1</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>543</v>
+        <v>358</v>
       </c>
       <c r="D75" s="9">
         <v>0</v>
@@ -4426,18 +4403,18 @@
         <v>8</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>545</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>544</v>
+      <c r="A76">
+        <v>562</v>
       </c>
       <c r="B76" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>360</v>
@@ -4449,18 +4426,18 @@
         <v>8</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>453</v>
+      <c r="A77">
+        <v>563</v>
       </c>
       <c r="B77" s="9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>362</v>
@@ -4472,21 +4449,21 @@
         <v>8</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B78" s="9">
         <v>1</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D78" s="9">
         <v>0</v>
@@ -4495,22 +4472,21 @@
         <v>8</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>533+20</f>
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B79" s="9">
         <v>1</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D79" s="9">
         <v>0</v>
@@ -4519,21 +4495,21 @@
         <v>8</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="B80" s="9">
         <v>1</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D80" s="9">
         <v>0</v>
@@ -4542,21 +4518,21 @@
         <v>8</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B81" s="9">
         <v>1</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -4565,21 +4541,21 @@
         <v>8</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B82" s="9">
         <v>1</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -4588,21 +4564,21 @@
         <v>8</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B83" s="9">
         <v>1</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D83" s="9">
         <v>0</v>
@@ -4611,22 +4587,22 @@
         <v>8</v>
       </c>
       <c r="F83" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>429</v>
+      </c>
+      <c r="B84" s="9">
+        <v>10</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>558</v>
-      </c>
-      <c r="B84" s="9">
-        <v>1</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="D84" s="9">
         <v>0</v>
       </c>
@@ -4634,21 +4610,21 @@
         <v>8</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>375</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="B85" s="9">
         <v>1</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
@@ -4657,21 +4633,21 @@
         <v>8</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
@@ -4680,21 +4656,21 @@
         <v>8</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B87" s="9">
         <v>1</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D87" s="9">
         <v>0</v>
@@ -4703,21 +4679,21 @@
         <v>8</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="B88" s="9">
         <v>1</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D88" s="9">
         <v>0</v>
@@ -4726,21 +4702,21 @@
         <v>8</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="B89" s="9">
         <v>1</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D89" s="9">
         <v>0</v>
@@ -4749,21 +4725,21 @@
         <v>8</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="B90" s="9">
         <v>1</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D90" s="9">
         <v>0</v>
@@ -4772,21 +4748,21 @@
         <v>8</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D91" s="9">
         <v>0</v>
@@ -4795,21 +4771,21 @@
         <v>8</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="B92" s="9">
         <v>1</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D92" s="9">
         <v>0</v>
@@ -4818,21 +4794,21 @@
         <v>8</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="B93" s="9">
         <v>1</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D93" s="9">
         <v>0</v>
@@ -4841,21 +4817,21 @@
         <v>8</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="B94" s="9">
         <v>1</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D94" s="9">
         <v>0</v>
@@ -4864,67 +4840,67 @@
         <v>8</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="B95" s="9">
         <v>1</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>591</v>
+      </c>
+      <c r="B96" s="9">
+        <v>1</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G96" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="D95" s="9">
-        <v>0</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>454</v>
-      </c>
-      <c r="B96" s="9">
-        <v>10</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D96" s="9">
-        <v>0</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D97" s="9">
         <v>0</v>
@@ -4933,21 +4909,21 @@
         <v>8</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B98" s="9">
         <v>1</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D98" s="9">
         <v>0</v>
@@ -4956,44 +4932,44 @@
         <v>8</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B99" s="9">
         <v>1</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D99" s="9">
+        <v>0</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G99" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="D99" s="9">
-        <v>0</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B100" s="9">
         <v>1</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D100" s="9">
         <v>0</v>
@@ -5002,21 +4978,21 @@
         <v>8</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B101" s="9">
         <v>1</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D101" s="9">
         <v>0</v>
@@ -5025,76 +5001,76 @@
         <v>8</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B102" s="9">
         <v>1</v>
       </c>
       <c r="C102" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" s="9">
+        <v>0</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="D102" s="9">
-        <v>0</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B103" s="9">
         <v>1</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="D103" s="9">
-        <v>0</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B104" s="9">
         <v>1</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>416</v>
@@ -5102,7 +5078,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B105" s="9">
         <v>1</v>
@@ -5117,21 +5093,21 @@
         <v>8</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>589</v>
+      <c r="A106" t="s">
+        <v>430</v>
       </c>
       <c r="B106" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>419</v>
+        <v>110</v>
       </c>
       <c r="D106" s="9">
         <v>0</v>
@@ -5140,21 +5116,18 @@
         <v>8</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="B107" s="9">
         <v>1</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D107" s="9">
         <v>0</v>
@@ -5163,21 +5136,21 @@
         <v>8</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="B108" s="9">
         <v>1</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D108" s="9">
         <v>0</v>
@@ -5186,15 +5159,15 @@
         <v>8</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="B109" s="9">
         <v>1</v>
@@ -5209,21 +5182,21 @@
         <v>8</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="B110" s="9">
         <v>1</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D110" s="9">
         <v>0</v>
@@ -5232,44 +5205,29 @@
         <v>8</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>594</v>
-      </c>
-      <c r="B111" s="9">
-        <v>1</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D111" s="9">
-        <v>0</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>430</v>
-      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>595</v>
+      <c r="A112" t="s">
+        <v>551</v>
       </c>
       <c r="B112" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>431</v>
+        <v>552</v>
       </c>
       <c r="D112" s="9">
         <v>0</v>
@@ -5278,21 +5236,21 @@
         <v>8</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>377</v>
+        <v>547</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>434</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>596</v>
+      <c r="A113" t="s">
+        <v>545</v>
       </c>
       <c r="B113" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="D113" s="9">
         <v>0</v>
@@ -5301,21 +5259,21 @@
         <v>8</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>377</v>
+        <v>547</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>433</v>
+        <v>557</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>597</v>
+      <c r="A114" t="s">
+        <v>548</v>
       </c>
       <c r="B114" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>435</v>
+        <v>549</v>
       </c>
       <c r="D114" s="9">
         <v>0</v>
@@ -5324,21 +5282,21 @@
         <v>8</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>377</v>
+        <v>547</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>436</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>598</v>
+      <c r="A115" t="s">
+        <v>554</v>
       </c>
       <c r="B115" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>437</v>
+        <v>555</v>
       </c>
       <c r="D115" s="9">
         <v>0</v>
@@ -5347,21 +5305,21 @@
         <v>8</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>377</v>
+        <v>547</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>438</v>
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>599</v>
+      <c r="A116" t="s">
+        <v>558</v>
       </c>
       <c r="B116" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>439</v>
+        <v>559</v>
       </c>
       <c r="D116" s="9">
         <v>0</v>
@@ -5370,149 +5328,11 @@
         <v>8</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>600</v>
-      </c>
-      <c r="B117" s="9">
-        <v>1</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D117" s="9">
-        <v>0</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>455</v>
-      </c>
-      <c r="B118" s="9">
-        <v>9</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D118" s="9">
-        <v>0</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>610</v>
-      </c>
-      <c r="B119" s="9">
-        <v>1</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D119" s="9">
-        <v>0</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>611</v>
-      </c>
-      <c r="B120" s="9">
-        <v>1</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="D120" s="9">
-        <v>0</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>612</v>
-      </c>
-      <c r="B121" s="9">
-        <v>1</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D121" s="9">
-        <v>0</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>613</v>
-      </c>
-      <c r="B122" s="9">
-        <v>1</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="D122" s="9">
-        <v>0</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="9"/>
+        <v>560</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5563,143 +5383,143 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B7" s="16">
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B8" s="16">
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -5711,410 +5531,410 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B11" s="16">
         <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B13" s="16">
         <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B16" s="16">
         <v>1</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B17" s="16">
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B18" s="16">
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B19" s="16">
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B20" s="16">
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B21" s="16">
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B23" s="16">
         <v>3</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D23" s="9">
         <v>5</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="B24" s="16">
         <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B25" s="16">
         <v>4</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B27" s="16">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B28" s="16">
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D29" s="9">
         <v>0</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B30" s="16">
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="B31" s="16">
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B32" s="16">
         <v>9</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -6134,25 +5954,25 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B34" s="16">
         <v>9</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B35" s="16">
         <v>10</v>
@@ -6164,37 +5984,37 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B36" s="16">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B37" s="16">
         <v>2</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F37" s="9"/>
     </row>
@@ -6206,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F38" s="9"/>
     </row>
@@ -6224,13 +6044,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="F39" s="9"/>
     </row>
@@ -6242,13 +6062,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F40" s="9"/>
     </row>
@@ -6260,13 +6080,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F41" s="9"/>
     </row>
@@ -6278,13 +6098,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D42" s="9">
         <v>0</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="F42" s="9"/>
     </row>
@@ -6296,13 +6116,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F43" s="9"/>
     </row>
@@ -6314,13 +6134,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="F44" s="9"/>
     </row>
@@ -6332,13 +6152,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D45" s="9">
         <v>0</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F45" s="9"/>
     </row>
@@ -6350,13 +6170,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F46" s="9"/>
     </row>
@@ -6368,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="F47" s="9"/>
     </row>
@@ -6386,49 +6206,49 @@
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B49" s="16">
         <v>29</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B50" s="16">
         <v>4</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D50" s="9">
         <v>0</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F50" s="9"/>
     </row>
@@ -6440,13 +6260,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F51" s="9"/>
     </row>
@@ -6458,13 +6278,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="F52" s="9"/>
     </row>
@@ -6476,13 +6296,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F53" s="9"/>
     </row>
@@ -6494,31 +6314,31 @@
         <v>1</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="B55" s="16">
         <v>21</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D55" s="9">
         <v>0</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="F55" s="9"/>
     </row>
@@ -6530,13 +6350,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="F56" s="9"/>
     </row>
@@ -6548,13 +6368,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="F57" s="9"/>
     </row>
@@ -6566,13 +6386,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="F58" s="9"/>
     </row>
@@ -6584,67 +6404,67 @@
         <v>1</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="D59" s="9">
         <v>0</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B60" s="16">
         <v>5</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B61" s="16">
         <v>32</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D61" s="9">
         <v>0</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B62" s="16">
         <v>32</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="D62" s="9">
         <v>0</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="F62" s="9"/>
     </row>
@@ -6656,13 +6476,13 @@
         <v>1</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="F63" s="9"/>
     </row>
@@ -6674,13 +6494,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="F64" s="9"/>
     </row>
@@ -6692,13 +6512,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="F65" s="9"/>
     </row>
@@ -6710,13 +6530,13 @@
         <v>1</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D66" s="9">
         <v>0</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="F66" s="9"/>
     </row>
@@ -6728,53 +6548,53 @@
         <v>1</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="16" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="B68" s="16">
         <v>16</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="B69" s="16">
         <v>16</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="B70" s="16">
         <v>11</v>
@@ -6790,50 +6610,50 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="B71" s="16">
         <v>3</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="D71" s="9">
         <v>0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="B72" s="16">
         <v>3</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="B73" s="16">
         <v>64</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -6860,33 +6680,33 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="49" t="s">
-        <v>468</v>
-      </c>
-      <c r="D3" s="50"/>
+      <c r="C3" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="37"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="52"/>
+      <c r="J3" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="38"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="21"/>
@@ -6956,258 +6776,258 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="C5" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="35"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6" s="48"/>
+      <c r="C6" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="35"/>
       <c r="E6" s="23" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="D7" s="39"/>
+      <c r="C7" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="53" t="s">
-        <v>519</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="34"/>
+      <c r="J7" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="59"/>
     </row>
     <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="N12" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
+      <c r="C12" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="N12" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>513</v>
-      </c>
-      <c r="T12" s="57"/>
+        <v>468</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" t="s">
         <v>469</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" t="s">
-        <v>494</v>
-      </c>
-      <c r="S13" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T13" s="58"/>
+      <c r="S13" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N14" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
+      <c r="N14" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="44"/>
       <c r="R14" t="s">
-        <v>495</v>
-      </c>
-      <c r="S14" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T14" s="58"/>
+        <v>470</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T14" s="29"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="37"/>
+      <c r="N15" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="44"/>
       <c r="R15" t="s">
-        <v>496</v>
-      </c>
-      <c r="S15" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T15" s="58"/>
+        <v>471</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
+      <c r="N16" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="44"/>
       <c r="R16" t="s">
-        <v>294</v>
-      </c>
-      <c r="S16" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T16" s="58"/>
+        <v>269</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="17">
@@ -7234,367 +7054,415 @@
       <c r="K17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
+      <c r="N17" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
       <c r="R17" t="s">
-        <v>497</v>
-      </c>
-      <c r="S17" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T17" s="58"/>
+        <v>472</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T17" s="29"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>514</v>
-      </c>
-      <c r="D18" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="H18" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="J18" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="K18" t="s">
-        <v>520</v>
-      </c>
-      <c r="N18" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
+        <v>495</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="44"/>
       <c r="R18" t="s">
-        <v>498</v>
-      </c>
-      <c r="S18" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="T18" s="59"/>
+        <v>473</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="T18" s="28"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>515</v>
-      </c>
-      <c r="D19" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="K19" t="s">
-        <v>526</v>
-      </c>
-      <c r="N19" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" t="s">
         <v>474</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" t="s">
-        <v>499</v>
-      </c>
-      <c r="S19" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="T19" s="59"/>
+      <c r="S19" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="T19" s="28"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>516</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="G20" s="46"/>
+        <v>491</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="31"/>
       <c r="H20" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="I20" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="J20" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="K20" t="s">
-        <v>527</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
+        <v>502</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="44"/>
       <c r="R20" t="s">
-        <v>296</v>
-      </c>
-      <c r="S20" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T20" s="58"/>
+        <v>271</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>517</v>
-      </c>
-      <c r="D21" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" t="s">
-        <v>532</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>531</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="N21" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="37"/>
+        <v>507</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="N21" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
       <c r="R21" t="s">
-        <v>500</v>
-      </c>
-      <c r="S21" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T21" s="58"/>
+        <v>475</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T21" s="29"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>533</v>
-      </c>
-      <c r="D22" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" t="s">
-        <v>532</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="N22" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="N22" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" t="s">
+        <v>477</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" t="s">
         <v>478</v>
       </c>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" t="s">
-        <v>502</v>
-      </c>
-      <c r="S22" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T22" s="58"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="35" t="s">
+      <c r="S23" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="T23" s="28"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" t="s">
+        <v>272</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" t="s">
         <v>479</v>
       </c>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" t="s">
-        <v>503</v>
-      </c>
-      <c r="S23" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="T23" s="59"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="35" t="s">
+      <c r="S25" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T25" s="29"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" t="s">
         <v>480</v>
       </c>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" t="s">
-        <v>297</v>
-      </c>
-      <c r="S24" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T24" s="58"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N25" s="35" t="s">
+      <c r="S26" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T26" s="29"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" t="s">
         <v>481</v>
       </c>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" t="s">
-        <v>504</v>
-      </c>
-      <c r="S25" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T25" s="58"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="35" t="s">
+      <c r="S27" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N28" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" t="s">
+        <v>273</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T28" s="29"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N29" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" t="s">
+        <v>476</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T29" s="29"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N30" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" t="s">
         <v>482</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" t="s">
-        <v>505</v>
-      </c>
-      <c r="S26" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T26" s="58"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N27" s="35" t="s">
+      <c r="S30" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="T30" s="28"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" t="s">
         <v>483</v>
       </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" t="s">
-        <v>506</v>
-      </c>
-      <c r="S27" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T27" s="58"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" t="s">
-        <v>298</v>
-      </c>
-      <c r="S28" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T28" s="58"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="35" t="s">
+      <c r="S31" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="T31" s="28"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N32" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" t="s">
-        <v>501</v>
-      </c>
-      <c r="S29" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T29" s="58"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" t="s">
-        <v>507</v>
-      </c>
-      <c r="S30" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="T30" s="59"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" t="s">
-        <v>508</v>
-      </c>
-      <c r="S31" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="T31" s="59"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N32" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="44"/>
       <c r="R32" t="s">
-        <v>299</v>
-      </c>
-      <c r="S32" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="T32" s="59"/>
+        <v>274</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="T32" s="28"/>
     </row>
     <row r="33" spans="14:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
+      <c r="N33" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
       <c r="R33" t="s">
-        <v>509</v>
-      </c>
-      <c r="S33" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="T33" s="58"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
+        <v>484</v>
+      </c>
+      <c r="S33" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="T33" s="29"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
     </row>
     <row r="34" spans="14:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J3:Y3"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="D18:F18"/>
@@ -7611,54 +7479,6 @@
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="S31:T31"/>
     <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J3:Y3"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/core/DRV_BUS_and_more.xlsx
+++ b/doc/core/DRV_BUS_and_more.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="557">
   <si>
     <t>Index</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Destination unit</t>
   </si>
   <si>
-    <t>0-5</t>
-  </si>
-  <si>
     <t>Width</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>Number of mminimal time quantum (sys clock) in time quantum , Data BitTime</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>drv_prs_nbt</t>
   </si>
   <si>
@@ -253,36 +247,9 @@
     <t>Phase 1 segment length nominal bit time</t>
   </si>
   <si>
-    <t>17-12</t>
-  </si>
-  <si>
-    <t>18-23</t>
-  </si>
-  <si>
-    <t>24-29</t>
-  </si>
-  <si>
-    <t>30-33</t>
-  </si>
-  <si>
-    <t>34-37</t>
-  </si>
-  <si>
-    <t>38-41</t>
-  </si>
-  <si>
     <t>Number of mminimal time quantum (sys clock) in time quantum , Nominal Bit Time</t>
   </si>
   <si>
-    <t>reserved_prescaler</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>NOT Used reserved for future expansion of prescaler</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -502,9 +469,6 @@
     <t>0-Single sampling on the bus, 1-Tripple sampling on the bus</t>
   </si>
   <si>
-    <t>42-45</t>
-  </si>
-  <si>
     <t>reserved tx buffer</t>
   </si>
   <si>
@@ -1036,12 +1000,6 @@
     <t>Clear overRun register</t>
   </si>
   <si>
-    <t>46-49</t>
-  </si>
-  <si>
-    <t>50-60</t>
-  </si>
-  <si>
     <t>drv_sjw_nbt</t>
   </si>
   <si>
@@ -1865,6 +1823,36 @@
   </si>
   <si>
     <t>Interrupt mask clear</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>8-15</t>
+  </si>
+  <si>
+    <t>16-22</t>
+  </si>
+  <si>
+    <t>23-28</t>
+  </si>
+  <si>
+    <t>29-34</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>41-45</t>
+  </si>
+  <si>
+    <t>46-50</t>
+  </si>
+  <si>
+    <t>51-55</t>
+  </si>
+  <si>
+    <t>56-60</t>
   </si>
 </sst>
 </file>
@@ -2296,40 +2284,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2363,23 +2334,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -2681,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,7 +2680,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="124.7109375" customWidth="1"/>
@@ -2704,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2722,1212 +2710,1214 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>547</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>549</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>550</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>551</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>552</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>553</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>554</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>106</v>
+        <v>555</v>
       </c>
       <c r="B10" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>284</v>
+        <v>556</v>
       </c>
       <c r="B11" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="8">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" s="8">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1111</v>
+      </c>
       <c r="E14" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1111</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B16" s="9">
         <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1111</v>
+      </c>
       <c r="E17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1111</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9">
         <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B20" s="9">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1111</v>
+      </c>
       <c r="E20" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B21" s="9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1111</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B22" s="9">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1111</v>
+      </c>
       <c r="E22" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1111</v>
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B24" s="9">
         <v>29</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="26"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="B25" s="9">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>86</v>
+        <v>267</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B26" s="9">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>280</v>
+        <v>54</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B27" s="9">
-        <v>29</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>65</v>
+      <c r="A27" s="15">
+        <v>350</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B28" s="14">
         <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>67</v>
+        <v>528</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>69</v>
+        <v>529</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>542</v>
+        <v>57</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B30" s="14">
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>270</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
       <c r="E30" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>70</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>353</v>
+      <c r="A31" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="B31" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>283</v>
+        <v>54</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B32" s="14">
-        <v>3</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="14" t="s">
+      <c r="A32" s="13">
+        <v>356</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>331</v>
+        <v>519</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>533</v>
+        <v>318</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="H34" s="9"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>358</v>
+      <c r="A35" s="9">
+        <v>359</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>332</v>
+        <v>520</v>
       </c>
       <c r="D35" s="9">
         <v>0</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>75</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>359</v>
-      </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="H36" s="9"/>
+      <c r="A36" s="14">
+        <v>360</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>360</v>
+      <c r="A37" s="14" t="s">
+        <v>527</v>
       </c>
       <c r="B37" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="B38" s="14">
-        <v>3</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>99</v>
+      <c r="A38" s="9">
+        <v>366</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>372</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="14">
+        <v>4</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>530</v>
+      </c>
+      <c r="B43" s="9">
+        <v>13</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="14">
         <v>8</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="C44" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="14">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>367</v>
-      </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="9">
-        <v>4</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>372</v>
-      </c>
-      <c r="B42" s="14">
-        <v>1</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="14">
-        <v>0</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="E44" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="14">
-        <v>4</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>544</v>
-      </c>
-      <c r="B44" s="9">
-        <v>13</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="G44" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B45" s="14">
         <v>8</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D45" s="14">
         <v>96</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="B46" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="D46" s="14">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B47" s="14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D47" s="14">
         <v>0</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H47" s="14"/>
+        <v>309</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B48" s="14">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D48" s="14">
         <v>0</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B49" s="14">
-        <v>31</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="14">
-        <v>0</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="A49" s="9">
+        <v>460</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B51" s="9">
         <v>1</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>465</v>
+      <c r="A52" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B52" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D52" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="9"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>125</v>
+      <c r="A53" s="9">
+        <v>470</v>
       </c>
       <c r="B53" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D53" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
@@ -3939,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>276</v>
@@ -3950,1393 +3940,1370 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B56" s="9">
         <v>1</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B57" s="9">
         <v>1</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>474</v>
+      <c r="A58" t="s">
+        <v>282</v>
       </c>
       <c r="B58" s="9">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>296</v>
+      <c r="A59">
+        <v>507</v>
       </c>
       <c r="B59" s="9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D59" s="9">
         <v>0</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B60" s="9">
         <v>1</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B61" s="9">
         <v>1</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>333</v>
+        <v>502</v>
       </c>
       <c r="D61" s="9">
         <v>0</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>334</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D62" s="9">
         <v>0</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>510</v>
+      <c r="A63" t="s">
+        <v>505</v>
       </c>
       <c r="B63" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>518</v>
+        <v>321</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>520</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="B64" s="9">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>108</v>
+        <v>338</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>99</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>428</v>
+      <c r="A65">
+        <v>552</v>
       </c>
       <c r="B65" s="9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>552</v>
+        <f>533+20</f>
+        <v>553</v>
       </c>
       <c r="B66" s="9">
         <v>1</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D66" s="9">
-        <v>0</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="G66" s="9" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>533+20</f>
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D67" s="9">
         <v>0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B69" s="9">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B71" s="9">
         <v>1</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D71" s="9">
         <v>0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B72" s="9">
         <v>1</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B73" s="9">
         <v>1</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D73" s="9">
         <v>0</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B74" s="9">
         <v>1</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D74" s="9">
         <v>0</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B75" s="9">
         <v>1</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D75" s="9">
         <v>0</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B76" s="9">
         <v>1</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D76" s="9">
         <v>0</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B77" s="9">
         <v>1</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D77" s="9">
         <v>0</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B78" s="9">
         <v>1</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D78" s="9">
         <v>0</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B79" s="9">
         <v>1</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D79" s="9">
         <v>0</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B80" s="9">
         <v>1</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D80" s="9">
         <v>0</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B81" s="9">
         <v>1</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B82" s="9">
         <v>1</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>569</v>
+      <c r="A83" t="s">
+        <v>415</v>
       </c>
       <c r="B83" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D83" s="9">
         <v>0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>375</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>429</v>
+      <c r="A84">
+        <v>580</v>
       </c>
       <c r="B84" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="D84" s="9">
         <v>0</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B85" s="9">
         <v>1</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B86" s="9">
         <v>1</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B87" s="9">
         <v>1</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D87" s="9">
         <v>0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B88" s="9">
         <v>1</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D88" s="9">
         <v>0</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B89" s="9">
         <v>1</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D89" s="9">
         <v>0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B90" s="9">
         <v>1</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D90" s="9">
         <v>0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D91" s="9">
         <v>0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B92" s="9">
         <v>1</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D92" s="9">
         <v>0</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B93" s="9">
         <v>1</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D93" s="9">
         <v>0</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B94" s="9">
         <v>1</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D94" s="9">
         <v>0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B95" s="9">
         <v>1</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D95" s="9">
         <v>0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B96" s="9">
         <v>1</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D96" s="9">
         <v>0</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D97" s="9">
         <v>0</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B98" s="9">
         <v>1</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D98" s="9">
         <v>0</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B99" s="9">
         <v>1</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D99" s="9">
         <v>0</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B100" s="9">
         <v>1</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D100" s="9">
         <v>0</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B101" s="9">
         <v>1</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D101" s="9">
         <v>0</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B102" s="9">
         <v>1</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D102" s="9">
         <v>0</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B103" s="9">
         <v>1</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D103" s="9">
         <v>0</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B104" s="9">
         <v>1</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D104" s="9">
         <v>0</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="G104" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>600</v>
-      </c>
       <c r="B105" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="D105" s="9">
         <v>0</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>418</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>430</v>
+      <c r="A106">
+        <v>610</v>
       </c>
       <c r="B106" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>110</v>
+        <v>409</v>
       </c>
       <c r="D106" s="9">
         <v>0</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B107" s="9">
         <v>1</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D107" s="9">
         <v>0</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B108" s="9">
         <v>1</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D108" s="9">
         <v>0</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B109" s="9">
         <v>1</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D109" s="9">
         <v>0</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>613</v>
-      </c>
-      <c r="B110" s="9">
-        <v>1</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D110" s="9">
-        <v>0</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>422</v>
-      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="A111" t="s">
+        <v>537</v>
+      </c>
+      <c r="B111" s="9">
+        <v>11</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="B112" s="9">
         <v>11</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="D112" s="9">
         <v>0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B113" s="9">
         <v>11</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D113" s="9">
         <v>0</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B114" s="9">
         <v>11</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D114" s="9">
         <v>0</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B115" s="9">
         <v>11</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D115" s="9">
         <v>0</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>558</v>
-      </c>
-      <c r="B116" s="9">
-        <v>11</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="D116" s="9">
-        <v>0</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="H13:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5366,160 +5333,160 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B2" s="9">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B7" s="16">
         <v>1</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B8" s="16">
         <v>2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B9" s="16">
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -5531,410 +5498,410 @@
         <v>1</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B11" s="16">
         <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B13" s="16">
         <v>1</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B16" s="16">
         <v>1</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B17" s="16">
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B18" s="16">
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B19" s="16">
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B20" s="16">
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B21" s="16">
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B23" s="16">
         <v>3</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D23" s="9">
         <v>5</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B24" s="16">
         <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B25" s="16">
         <v>4</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B27" s="16">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B28" s="16">
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D29" s="9">
         <v>0</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B30" s="16">
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B31" s="16">
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D31" s="9">
         <v>0</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B32" s="16">
         <v>9</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -5946,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
@@ -5954,67 +5921,67 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B34" s="16">
         <v>9</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D34" s="9">
         <v>0</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B35" s="16">
         <v>10</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B36" s="16">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B37" s="16">
         <v>2</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F37" s="9"/>
     </row>
@@ -6026,13 +5993,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F38" s="9"/>
     </row>
@@ -6044,13 +6011,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F39" s="9"/>
     </row>
@@ -6062,13 +6029,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F40" s="9"/>
     </row>
@@ -6080,13 +6047,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D41" s="9">
         <v>0</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F41" s="9"/>
     </row>
@@ -6098,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D42" s="9">
         <v>0</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F42" s="9"/>
     </row>
@@ -6116,13 +6083,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F43" s="9"/>
     </row>
@@ -6134,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F44" s="9"/>
     </row>
@@ -6152,13 +6119,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D45" s="9">
         <v>0</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F45" s="9"/>
     </row>
@@ -6170,13 +6137,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F46" s="9"/>
     </row>
@@ -6188,13 +6155,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F47" s="9"/>
     </row>
@@ -6206,49 +6173,49 @@
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B49" s="16">
         <v>29</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B50" s="16">
         <v>4</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D50" s="9">
         <v>0</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F50" s="9"/>
     </row>
@@ -6260,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F51" s="9"/>
     </row>
@@ -6278,13 +6245,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F52" s="9"/>
     </row>
@@ -6296,13 +6263,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F53" s="9"/>
     </row>
@@ -6314,31 +6281,31 @@
         <v>1</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D54" s="9">
         <v>0</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B55" s="16">
         <v>21</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D55" s="9">
         <v>0</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F55" s="9"/>
     </row>
@@ -6350,13 +6317,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F56" s="9"/>
     </row>
@@ -6368,13 +6335,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F57" s="9"/>
     </row>
@@ -6386,13 +6353,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F58" s="9"/>
     </row>
@@ -6404,67 +6371,67 @@
         <v>1</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D59" s="9">
         <v>0</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B60" s="16">
         <v>5</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B61" s="16">
         <v>32</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D61" s="9">
         <v>0</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B62" s="16">
         <v>32</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D62" s="9">
         <v>0</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F62" s="9"/>
     </row>
@@ -6476,13 +6443,13 @@
         <v>1</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="F63" s="9"/>
     </row>
@@ -6494,13 +6461,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="F64" s="9"/>
     </row>
@@ -6512,13 +6479,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F65" s="9"/>
     </row>
@@ -6530,13 +6497,13 @@
         <v>1</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D66" s="9">
         <v>0</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F66" s="9"/>
     </row>
@@ -6548,59 +6515,59 @@
         <v>1</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="16" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B68" s="16">
         <v>16</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B69" s="16">
         <v>16</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B70" s="16">
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
@@ -6610,50 +6577,50 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B71" s="16">
         <v>3</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D71" s="9">
         <v>0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B72" s="16">
         <v>3</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B73" s="16">
         <v>64</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6680,33 +6647,33 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="37"/>
+      <c r="C3" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" s="50"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="38"/>
+      <c r="J3" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="52"/>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="21"/>
@@ -6776,258 +6743,258 @@
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="35"/>
+      <c r="C5" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="P5" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="F6" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="G6" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="H6" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="I6" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y5" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="6" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="L6" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>456</v>
-      </c>
       <c r="N6" s="11" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" s="46"/>
+      <c r="C7" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="39"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="57" t="s">
-        <v>467</v>
-      </c>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
+      <c r="J7" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="34"/>
     </row>
     <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="N12" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
+      <c r="C12" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="N12" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
       <c r="R12" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="T12" s="33"/>
+        <v>454</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="T12" s="57"/>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N13" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
+      <c r="N13" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
       <c r="R13" t="s">
-        <v>469</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T13" s="29"/>
+        <v>455</v>
+      </c>
+      <c r="S13" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T13" s="58"/>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N14" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
+      <c r="N14" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
       <c r="R14" t="s">
-        <v>470</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T14" s="29"/>
+        <v>456</v>
+      </c>
+      <c r="S14" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T14" s="58"/>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="44"/>
+      <c r="N15" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
       <c r="R15" t="s">
-        <v>471</v>
-      </c>
-      <c r="S15" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T15" s="29"/>
+        <v>457</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T15" s="58"/>
     </row>
     <row r="16" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N16" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
+      <c r="N16" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
       <c r="R16" t="s">
-        <v>269</v>
-      </c>
-      <c r="S16" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T16" s="29"/>
+        <v>257</v>
+      </c>
+      <c r="S16" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T16" s="58"/>
     </row>
     <row r="17" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="17">
@@ -7054,367 +7021,415 @@
       <c r="K17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="42" t="s">
-        <v>448</v>
-      </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
+      <c r="N17" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
       <c r="R17" t="s">
-        <v>472</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T17" s="29"/>
+        <v>458</v>
+      </c>
+      <c r="S17" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T17" s="58"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>489</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+        <v>475</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="H18" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="I18" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="J18" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="K18" t="s">
-        <v>495</v>
-      </c>
-      <c r="N18" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44"/>
+        <v>481</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
       <c r="R18" t="s">
-        <v>473</v>
-      </c>
-      <c r="S18" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="T18" s="28"/>
+        <v>459</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="T18" s="59"/>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+        <v>476</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="K19" t="s">
-        <v>501</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
+        <v>487</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
       <c r="R19" t="s">
-        <v>474</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="T19" s="28"/>
+        <v>460</v>
+      </c>
+      <c r="S19" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="T19" s="59"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" t="s">
         <v>491</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" t="s">
-        <v>505</v>
-      </c>
       <c r="I20" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="J20" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="K20" t="s">
-        <v>502</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="44"/>
+        <v>488</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
       <c r="R20" t="s">
-        <v>271</v>
-      </c>
-      <c r="S20" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T20" s="29"/>
+        <v>259</v>
+      </c>
+      <c r="S20" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T20" s="58"/>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" t="s">
+        <v>493</v>
+      </c>
+      <c r="I21" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" t="s">
-        <v>507</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="N21" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="N21" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
       <c r="R21" t="s">
-        <v>475</v>
-      </c>
-      <c r="S21" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T21" s="29"/>
+        <v>461</v>
+      </c>
+      <c r="S21" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T21" s="58"/>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>508</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+        <v>494</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
       <c r="H22" t="s">
-        <v>507</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="N22" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="44"/>
+        <v>493</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="N22" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
       <c r="R22" t="s">
+        <v>463</v>
+      </c>
+      <c r="S22" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T22" s="58"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" t="s">
+        <v>464</v>
+      </c>
+      <c r="S23" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="T23" s="59"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" t="s">
+        <v>260</v>
+      </c>
+      <c r="S24" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T24" s="58"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" t="s">
+        <v>465</v>
+      </c>
+      <c r="S25" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T25" s="58"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" t="s">
+        <v>466</v>
+      </c>
+      <c r="S26" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T26" s="58"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" t="s">
+        <v>467</v>
+      </c>
+      <c r="S27" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T27" s="58"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N28" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" t="s">
+        <v>261</v>
+      </c>
+      <c r="S28" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T28" s="58"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N29" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" t="s">
+        <v>462</v>
+      </c>
+      <c r="S29" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T29" s="58"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N30" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" t="s">
+        <v>468</v>
+      </c>
+      <c r="S30" s="59" t="s">
         <v>477</v>
       </c>
-      <c r="S22" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T22" s="29"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" t="s">
+      <c r="T30" s="59"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" t="s">
+        <v>469</v>
+      </c>
+      <c r="S31" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="S23" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="T23" s="28"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" t="s">
-        <v>272</v>
-      </c>
-      <c r="S24" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T24" s="29"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N25" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" t="s">
+      <c r="T31" s="59"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N32" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" t="s">
+        <v>262</v>
+      </c>
+      <c r="S32" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="S25" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T25" s="29"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" t="s">
-        <v>480</v>
-      </c>
-      <c r="S26" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T26" s="29"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N27" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" t="s">
-        <v>481</v>
-      </c>
-      <c r="S27" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T27" s="29"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" t="s">
-        <v>273</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T28" s="29"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" t="s">
-        <v>476</v>
-      </c>
-      <c r="S29" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T29" s="29"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" t="s">
-        <v>482</v>
-      </c>
-      <c r="S30" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="T30" s="28"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" t="s">
-        <v>483</v>
-      </c>
-      <c r="S31" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="T31" s="28"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N32" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" t="s">
-        <v>274</v>
-      </c>
-      <c r="S32" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="T32" s="28"/>
+      <c r="T32" s="59"/>
     </row>
     <row r="33" spans="14:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="53" t="s">
-        <v>466</v>
-      </c>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
+      <c r="N33" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="30"/>
       <c r="R33" t="s">
-        <v>484</v>
-      </c>
-      <c r="S33" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="T33" s="29"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
+        <v>470</v>
+      </c>
+      <c r="S33" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="T33" s="58"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
     </row>
     <row r="34" spans="14:24" x14ac:dyDescent="0.25">
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J3:Y3"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="U33:X33"/>
     <mergeCell ref="U34:X34"/>
@@ -7431,54 +7446,6 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J3:Y3"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S22:T22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
